--- a/data_month/zb/房地产/房地产施工、竣工面积.xlsx
+++ b/data_month/zb/房地产/房地产施工、竣工面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6019 +464,8194 @@
           <t>房地产竣工面积_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>房地产新开工施工面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>房地产施工面积</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>房地产竣工面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2206.23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43.5</v>
+      </c>
       <c r="D2" t="n">
-        <v>51567.6</v>
+        <v>19169.33</v>
       </c>
       <c r="E2" t="n">
-        <v>14.4</v>
+        <v>10.6</v>
       </c>
       <c r="F2" t="n">
-        <v>8893.4</v>
+        <v>668.38</v>
       </c>
       <c r="G2" t="n">
-        <v>18.2</v>
+        <v>27.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2206.23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19169.33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>668.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4747.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>34.8</v>
+      </c>
       <c r="D3" t="n">
-        <v>53134.7</v>
+        <v>27754.92</v>
       </c>
       <c r="E3" t="n">
-        <v>14.2</v>
+        <v>7.8</v>
       </c>
       <c r="F3" t="n">
-        <v>10779.3</v>
+        <v>1308.12</v>
       </c>
       <c r="G3" t="n">
-        <v>20.1</v>
+        <v>13.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2540.95</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8585.589999999997</v>
+      </c>
+      <c r="J3" t="n">
+        <v>639.7399999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>63529</v>
+        <v>32351.1</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>23027.9</v>
+        <v>1925</v>
       </c>
       <c r="G4" t="n">
-        <v>16.4</v>
+        <v>10.3</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>4596.18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>616.8800000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2206.23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>43.5</v>
-      </c>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>19169.33</v>
+        <v>36463.6</v>
       </c>
       <c r="E5" t="n">
-        <v>10.6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>668.38</v>
+        <v>2715.6</v>
       </c>
       <c r="G5" t="n">
-        <v>27.4</v>
+        <v>15.9</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>4112.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>790.5999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4747.18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>34.8</v>
-      </c>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>27754.92</v>
+        <v>40846.4</v>
       </c>
       <c r="E6" t="n">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1308.12</v>
+        <v>4119.1</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6</v>
+        <v>21</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>4382.800000000003</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1403.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>32351.1</v>
+        <v>44030.4</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>11.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1925</v>
+        <v>5123</v>
       </c>
       <c r="G7" t="n">
-        <v>10.3</v>
+        <v>19.1</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>3184</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1003.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>36463.6</v>
+        <v>46559.5</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>12.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2715.6</v>
+        <v>6173.4</v>
       </c>
       <c r="G8" t="n">
-        <v>15.9</v>
+        <v>21.7</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>2529.099999999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1050.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>40846.4</v>
+        <v>49154.6</v>
       </c>
       <c r="E9" t="n">
-        <v>10.1</v>
+        <v>13.5</v>
       </c>
       <c r="F9" t="n">
-        <v>4119.1</v>
+        <v>7536.9</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>22.3</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>2595.099999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1363.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>44030.4</v>
+        <v>51567.6</v>
       </c>
       <c r="E10" t="n">
-        <v>11.6</v>
+        <v>14.4</v>
       </c>
       <c r="F10" t="n">
-        <v>5123</v>
+        <v>8893.4</v>
       </c>
       <c r="G10" t="n">
-        <v>19.1</v>
+        <v>18.2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>2413</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1356.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>46559.5</v>
+        <v>53134.7</v>
       </c>
       <c r="E11" t="n">
-        <v>12.8</v>
+        <v>14.2</v>
       </c>
       <c r="F11" t="n">
-        <v>6173.4</v>
+        <v>10779.3</v>
       </c>
       <c r="G11" t="n">
-        <v>21.7</v>
+        <v>20.1</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1567.099999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1885.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>49154.6</v>
+        <v>63529</v>
       </c>
       <c r="E12" t="n">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="F12" t="n">
-        <v>7536.9</v>
+        <v>23027.9</v>
       </c>
       <c r="G12" t="n">
-        <v>22.3</v>
+        <v>16.4</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>10394.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12248.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25893.56</v>
+        <v>2873.66</v>
       </c>
       <c r="C13" t="n">
-        <v>34.9</v>
+        <v>30.3</v>
       </c>
       <c r="D13" t="n">
-        <v>63184.03</v>
+        <v>24049.59</v>
       </c>
       <c r="E13" t="n">
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="F13" t="n">
-        <v>10555.58</v>
+        <v>760.36</v>
       </c>
       <c r="G13" t="n">
-        <v>18.7</v>
+        <v>13.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2873.66</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24049.59</v>
+      </c>
+      <c r="J13" t="n">
+        <v>760.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28277.37</v>
+        <v>6142.25</v>
       </c>
       <c r="C14" t="n">
-        <v>32.5</v>
+        <v>29.4</v>
       </c>
       <c r="D14" t="n">
-        <v>65851.55</v>
+        <v>33741.24</v>
       </c>
       <c r="E14" t="n">
         <v>21.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12681.84</v>
+        <v>1698.02</v>
       </c>
       <c r="G14" t="n">
-        <v>17.6</v>
+        <v>29.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3268.59</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9691.649999999998</v>
+      </c>
+      <c r="J14" t="n">
+        <v>937.66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35946.03</v>
+        <v>8677.92</v>
       </c>
       <c r="C15" t="n">
-        <v>27.2</v>
+        <v>29.6</v>
       </c>
       <c r="D15" t="n">
-        <v>77213.49000000001</v>
+        <v>39322.04</v>
       </c>
       <c r="E15" t="n">
         <v>21.5</v>
       </c>
       <c r="F15" t="n">
-        <v>27303.16</v>
+        <v>2586.29</v>
       </c>
       <c r="G15" t="n">
-        <v>18.6</v>
+        <v>34.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2535.67</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5580.800000000003</v>
+      </c>
+      <c r="J15" t="n">
+        <v>888.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2873.66</v>
+        <v>11741.26</v>
       </c>
       <c r="C16" t="n">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>24049.59</v>
+        <v>44394.02</v>
       </c>
       <c r="E16" t="n">
-        <v>25.5</v>
+        <v>21.7</v>
       </c>
       <c r="F16" t="n">
-        <v>760.36</v>
+        <v>3433.83</v>
       </c>
       <c r="G16" t="n">
-        <v>13.8</v>
+        <v>26.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3063.34</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5071.979999999996</v>
+      </c>
+      <c r="J16" t="n">
+        <v>847.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6142.25</v>
+        <v>15477.51</v>
       </c>
       <c r="C17" t="n">
-        <v>29.4</v>
+        <v>33.2</v>
       </c>
       <c r="D17" t="n">
-        <v>33741.24</v>
+        <v>49523.89</v>
       </c>
       <c r="E17" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="F17" t="n">
-        <v>1698.02</v>
+        <v>4840.66</v>
       </c>
       <c r="G17" t="n">
-        <v>29.8</v>
+        <v>17.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3736.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5129.870000000003</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1406.83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8677.92</v>
+        <v>18458.4</v>
       </c>
       <c r="C18" t="n">
-        <v>29.6</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>39322.04</v>
+        <v>53829.41</v>
       </c>
       <c r="E18" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2586.29</v>
+        <v>6044.74</v>
       </c>
       <c r="G18" t="n">
-        <v>34.4</v>
+        <v>18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2980.890000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4305.520000000004</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1204.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11741.26</v>
+        <v>21022.86</v>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>36.6</v>
       </c>
       <c r="D19" t="n">
-        <v>44394.02</v>
+        <v>57115.96</v>
       </c>
       <c r="E19" t="n">
-        <v>21.7</v>
+        <v>22.7</v>
       </c>
       <c r="F19" t="n">
-        <v>3433.83</v>
+        <v>7419.87</v>
       </c>
       <c r="G19" t="n">
-        <v>26.4</v>
+        <v>20.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2564.459999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3286.549999999996</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1375.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15477.51</v>
+        <v>23666.89</v>
       </c>
       <c r="C20" t="n">
-        <v>33.2</v>
+        <v>37.2</v>
       </c>
       <c r="D20" t="n">
-        <v>49523.89</v>
+        <v>60384.53</v>
       </c>
       <c r="E20" t="n">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="F20" t="n">
-        <v>4840.66</v>
+        <v>8975.83</v>
       </c>
       <c r="G20" t="n">
-        <v>17.5</v>
+        <v>19.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2644.029999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3268.57</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1555.96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18458.4</v>
+        <v>25893.56</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>34.9</v>
       </c>
       <c r="D21" t="n">
-        <v>53829.41</v>
+        <v>63184.03</v>
       </c>
       <c r="E21" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="F21" t="n">
-        <v>6044.74</v>
+        <v>10555.58</v>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>18.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2226.670000000002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2799.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1579.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21022.86</v>
+        <v>28277.37</v>
       </c>
       <c r="C22" t="n">
-        <v>36.6</v>
+        <v>32.5</v>
       </c>
       <c r="D22" t="n">
-        <v>57115.96</v>
+        <v>65851.55</v>
       </c>
       <c r="E22" t="n">
-        <v>22.7</v>
+        <v>21.6</v>
       </c>
       <c r="F22" t="n">
-        <v>7419.87</v>
+        <v>12681.84</v>
       </c>
       <c r="G22" t="n">
-        <v>20.2</v>
+        <v>17.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2383.809999999998</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2667.520000000004</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2126.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23666.89</v>
+        <v>35946.03</v>
       </c>
       <c r="C23" t="n">
-        <v>37.2</v>
+        <v>27.2</v>
       </c>
       <c r="D23" t="n">
-        <v>60384.53</v>
+        <v>77213.49000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
       <c r="F23" t="n">
-        <v>8975.83</v>
+        <v>27303.16</v>
       </c>
       <c r="G23" t="n">
-        <v>19.1</v>
+        <v>18.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7668.66</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11361.94</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14621.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30957.54</v>
+        <v>3750.76</v>
       </c>
       <c r="C24" t="n">
-        <v>19.6</v>
+        <v>30.5</v>
       </c>
       <c r="D24" t="n">
-        <v>77386.61</v>
+        <v>28453.23</v>
       </c>
       <c r="E24" t="n">
-        <v>22.5</v>
+        <v>18.3</v>
       </c>
       <c r="F24" t="n">
-        <v>13463.57</v>
+        <v>837.34</v>
       </c>
       <c r="G24" t="n">
-        <v>27.5</v>
+        <v>10.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3750.76</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28453.23</v>
+      </c>
+      <c r="J24" t="n">
+        <v>837.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33675.81</v>
+        <v>7744.98</v>
       </c>
       <c r="C25" t="n">
-        <v>19.1</v>
+        <v>26.1</v>
       </c>
       <c r="D25" t="n">
-        <v>80730.03999999999</v>
+        <v>40784.29</v>
       </c>
       <c r="E25" t="n">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
       <c r="F25" t="n">
-        <v>16270.66</v>
+        <v>2050.9</v>
       </c>
       <c r="G25" t="n">
-        <v>28.3</v>
+        <v>20.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3994.219999999999</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12331.06</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1213.56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42259.85</v>
+        <v>11108.46</v>
       </c>
       <c r="C26" t="n">
-        <v>17.6</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>92756.99000000001</v>
+        <v>48546.94</v>
       </c>
       <c r="E26" t="n">
-        <v>20.1</v>
+        <v>23.5</v>
       </c>
       <c r="F26" t="n">
-        <v>32522.81</v>
+        <v>3083.81</v>
       </c>
       <c r="G26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3363.48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7762.650000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1032.91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3750.76</v>
+        <v>14355.8</v>
       </c>
       <c r="C27" t="n">
-        <v>30.5</v>
+        <v>22.3</v>
       </c>
       <c r="D27" t="n">
-        <v>28453.23</v>
+        <v>54111.98</v>
       </c>
       <c r="E27" t="n">
-        <v>18.3</v>
+        <v>21.9</v>
       </c>
       <c r="F27" t="n">
-        <v>837.34</v>
+        <v>4075.5</v>
       </c>
       <c r="G27" t="n">
-        <v>10.1</v>
+        <v>18.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3247.34</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5565.040000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>991.6900000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7744.98</v>
+        <v>18534.66</v>
       </c>
       <c r="C28" t="n">
-        <v>26.1</v>
+        <v>19.8</v>
       </c>
       <c r="D28" t="n">
-        <v>40784.29</v>
+        <v>60528.95</v>
       </c>
       <c r="E28" t="n">
-        <v>20.9</v>
+        <v>22.2</v>
       </c>
       <c r="F28" t="n">
-        <v>2050.9</v>
+        <v>5826.43</v>
       </c>
       <c r="G28" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4178.860000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6416.969999999994</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1750.93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11108.46</v>
+        <v>21779.18</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>48546.94</v>
+        <v>66031.41</v>
       </c>
       <c r="E29" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="F29" t="n">
-        <v>3083.81</v>
+        <v>7516.55</v>
       </c>
       <c r="G29" t="n">
-        <v>19.2</v>
+        <v>24.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3244.52</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5502.460000000006</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1690.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14355.8</v>
+        <v>24697.21</v>
       </c>
       <c r="C30" t="n">
-        <v>22.3</v>
+        <v>17.5</v>
       </c>
       <c r="D30" t="n">
-        <v>54111.98</v>
+        <v>69714.75</v>
       </c>
       <c r="E30" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="F30" t="n">
-        <v>4075.5</v>
+        <v>9346.209999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>18.7</v>
+        <v>26</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2918.029999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3683.339999999997</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1829.659999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18534.66</v>
+        <v>27980.8</v>
       </c>
       <c r="C31" t="n">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
       <c r="D31" t="n">
-        <v>60528.95</v>
+        <v>73749.19</v>
       </c>
       <c r="E31" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="F31" t="n">
-        <v>5826.43</v>
+        <v>11342.09</v>
       </c>
       <c r="G31" t="n">
-        <v>20.4</v>
+        <v>26.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3283.59</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4034.440000000002</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1995.880000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21779.18</v>
+        <v>30957.54</v>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="D32" t="n">
-        <v>66031.41</v>
+        <v>77386.61</v>
       </c>
       <c r="E32" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="F32" t="n">
-        <v>7516.55</v>
+        <v>13463.57</v>
       </c>
       <c r="G32" t="n">
-        <v>24.3</v>
+        <v>27.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2976.740000000002</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3637.419999999998</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2121.48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24697.21</v>
+        <v>33675.81</v>
       </c>
       <c r="C33" t="n">
-        <v>17.5</v>
+        <v>19.1</v>
       </c>
       <c r="D33" t="n">
-        <v>69714.75</v>
+        <v>80730.03999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="F33" t="n">
-        <v>9346.209999999999</v>
+        <v>16270.66</v>
       </c>
       <c r="G33" t="n">
-        <v>26</v>
+        <v>28.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2718.269999999997</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3343.429999999993</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2807.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27980.8</v>
+        <v>42259.85</v>
       </c>
       <c r="C34" t="n">
-        <v>18.2</v>
+        <v>17.6</v>
       </c>
       <c r="D34" t="n">
-        <v>73749.19</v>
+        <v>92756.99000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>22.1</v>
+        <v>20.1</v>
       </c>
       <c r="F34" t="n">
-        <v>11342.09</v>
+        <v>32522.81</v>
       </c>
       <c r="G34" t="n">
-        <v>26.4</v>
+        <v>19.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8584.040000000001</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12026.95000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16252.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40226.54</v>
+        <v>5615.46</v>
       </c>
       <c r="C35" t="n">
-        <v>29.6</v>
+        <v>49.7</v>
       </c>
       <c r="D35" t="n">
-        <v>98234.14999999999</v>
+        <v>37464.59</v>
       </c>
       <c r="E35" t="n">
-        <v>27.6</v>
+        <v>31.6</v>
       </c>
       <c r="F35" t="n">
-        <v>17990.74</v>
+        <v>1463.71</v>
       </c>
       <c r="G35" t="n">
-        <v>33.3</v>
+        <v>74.8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5615.46</v>
+      </c>
+      <c r="I35" t="n">
+        <v>37464.59</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1463.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>43836.89</v>
+        <v>10528.64</v>
       </c>
       <c r="C36" t="n">
-        <v>29.9</v>
+        <v>35.9</v>
       </c>
       <c r="D36" t="n">
-        <v>102930.02</v>
+        <v>52592.31</v>
       </c>
       <c r="E36" t="n">
-        <v>27.3</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n">
-        <v>21006.93</v>
+        <v>2989.68</v>
       </c>
       <c r="G36" t="n">
-        <v>29</v>
+        <v>45.8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4913.179999999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15127.72</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1525.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54319.1</v>
+        <v>14629.87</v>
       </c>
       <c r="C37" t="n">
-        <v>28.5</v>
+        <v>31.7</v>
       </c>
       <c r="D37" t="n">
-        <v>116907.46</v>
+        <v>61320.18</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F37" t="n">
-        <v>39509.75</v>
+        <v>4280.79</v>
       </c>
       <c r="G37" t="n">
-        <v>21.5</v>
+        <v>38</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4101.230000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8727.870000000003</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1291.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5615.46</v>
+        <v>18948.75</v>
       </c>
       <c r="C38" t="n">
-        <v>49.7</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
-        <v>37464.59</v>
+        <v>69463.31</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6</v>
+        <v>28.1</v>
       </c>
       <c r="F38" t="n">
-        <v>1463.71</v>
+        <v>5791.34</v>
       </c>
       <c r="G38" t="n">
-        <v>74.8</v>
+        <v>41.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4318.879999999999</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8143.129999999997</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1510.55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10528.64</v>
+        <v>24340.89</v>
       </c>
       <c r="C39" t="n">
-        <v>35.9</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>52592.31</v>
+        <v>77582.92</v>
       </c>
       <c r="E39" t="n">
-        <v>29</v>
+        <v>27.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2989.68</v>
+        <v>8187.4</v>
       </c>
       <c r="G39" t="n">
-        <v>45.8</v>
+        <v>40.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5392.139999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8119.610000000001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2396.059999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14629.87</v>
+        <v>28520.07</v>
       </c>
       <c r="C40" t="n">
-        <v>31.7</v>
+        <v>29.9</v>
       </c>
       <c r="D40" t="n">
-        <v>61320.18</v>
+        <v>83423.86</v>
       </c>
       <c r="E40" t="n">
-        <v>25.8</v>
+        <v>27.9</v>
       </c>
       <c r="F40" t="n">
-        <v>4280.79</v>
+        <v>10367.9</v>
       </c>
       <c r="G40" t="n">
-        <v>38</v>
+        <v>37.7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4179.18</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5840.940000000002</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2180.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18948.75</v>
+        <v>32472.59</v>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>31.2</v>
       </c>
       <c r="D41" t="n">
-        <v>69463.31</v>
+        <v>88296.57000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="F41" t="n">
-        <v>5791.34</v>
+        <v>12439.98</v>
       </c>
       <c r="G41" t="n">
-        <v>41.4</v>
+        <v>32.8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3952.52</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4872.710000000006</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2072.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24340.89</v>
+        <v>36563.13</v>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="D42" t="n">
-        <v>77582.92</v>
+        <v>93615.86</v>
       </c>
       <c r="E42" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F42" t="n">
-        <v>8187.4</v>
+        <v>15325.81</v>
       </c>
       <c r="G42" t="n">
-        <v>40.4</v>
+        <v>34.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4090.539999999997</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5319.289999999994</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2885.83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28520.07</v>
+        <v>40226.54</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="D43" t="n">
-        <v>83423.86</v>
+        <v>98234.14999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F43" t="n">
-        <v>10367.9</v>
+        <v>17990.74</v>
       </c>
       <c r="G43" t="n">
-        <v>37.7</v>
+        <v>33.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3663.410000000003</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4618.289999999994</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2664.930000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32472.59</v>
+        <v>43836.89</v>
       </c>
       <c r="C44" t="n">
-        <v>31.2</v>
+        <v>29.9</v>
       </c>
       <c r="D44" t="n">
-        <v>88296.57000000001</v>
+        <v>102930.02</v>
       </c>
       <c r="E44" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F44" t="n">
-        <v>12439.98</v>
+        <v>21006.93</v>
       </c>
       <c r="G44" t="n">
-        <v>32.8</v>
+        <v>29</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3610.349999999999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4695.87000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3016.189999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36563.13</v>
+        <v>54319.1</v>
       </c>
       <c r="C45" t="n">
-        <v>30.4</v>
+        <v>28.5</v>
       </c>
       <c r="D45" t="n">
-        <v>93615.86</v>
+        <v>116907.46</v>
       </c>
       <c r="E45" t="n">
-        <v>27.8</v>
+        <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>15325.81</v>
+        <v>39509.75</v>
       </c>
       <c r="G45" t="n">
-        <v>34.9</v>
+        <v>21.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10482.21</v>
+      </c>
+      <c r="I45" t="n">
+        <v>13977.44</v>
+      </c>
+      <c r="J45" t="n">
+        <v>18502.82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44987.66</v>
+        <v>7427.45</v>
       </c>
       <c r="C46" t="n">
-        <v>11.7</v>
+        <v>32.3</v>
       </c>
       <c r="D46" t="n">
-        <v>120484.91</v>
+        <v>54212.47</v>
       </c>
       <c r="E46" t="n">
-        <v>22.3</v>
+        <v>44.6</v>
       </c>
       <c r="F46" t="n">
-        <v>19849.59</v>
+        <v>1909.93</v>
       </c>
       <c r="G46" t="n">
-        <v>9.800000000000001</v>
+        <v>30.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7427.45</v>
+      </c>
+      <c r="I46" t="n">
+        <v>54212.47</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1909.93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49015.63</v>
+        <v>12899.54</v>
       </c>
       <c r="C47" t="n">
-        <v>11.7</v>
+        <v>22.5</v>
       </c>
       <c r="D47" t="n">
-        <v>125532.31</v>
+        <v>70072.86</v>
       </c>
       <c r="E47" t="n">
-        <v>21.7</v>
+        <v>32.8</v>
       </c>
       <c r="F47" t="n">
-        <v>23607.54</v>
+        <v>3680.62</v>
       </c>
       <c r="G47" t="n">
-        <v>11.7</v>
+        <v>21.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5472.090000000001</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15860.39</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1770.69</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>60413.86</v>
+        <v>17412.06</v>
       </c>
       <c r="C48" t="n">
-        <v>10.4</v>
+        <v>19.3</v>
       </c>
       <c r="D48" t="n">
-        <v>140451.39</v>
+        <v>80291.39999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>19.2</v>
+        <v>31</v>
       </c>
       <c r="F48" t="n">
-        <v>42464.87</v>
+        <v>5309.84</v>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>22.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4512.52</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10218.53999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1629.22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7427.45</v>
+        <v>22495.81</v>
       </c>
       <c r="C49" t="n">
-        <v>32.3</v>
+        <v>18.7</v>
       </c>
       <c r="D49" t="n">
-        <v>54212.47</v>
+        <v>89534.56</v>
       </c>
       <c r="E49" t="n">
-        <v>44.6</v>
+        <v>28.7</v>
       </c>
       <c r="F49" t="n">
-        <v>1909.93</v>
+        <v>7084.31</v>
       </c>
       <c r="G49" t="n">
-        <v>30.3</v>
+        <v>21.4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5083.75</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9243.160000000003</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1774.47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12899.54</v>
+        <v>28036.74</v>
       </c>
       <c r="C50" t="n">
-        <v>22.5</v>
+        <v>15.2</v>
       </c>
       <c r="D50" t="n">
-        <v>70072.86</v>
+        <v>97785.41</v>
       </c>
       <c r="E50" t="n">
-        <v>32.8</v>
+        <v>25.8</v>
       </c>
       <c r="F50" t="n">
-        <v>3680.62</v>
+        <v>9552.98</v>
       </c>
       <c r="G50" t="n">
-        <v>21.3</v>
+        <v>15.6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5540.93</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8250.850000000006</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2468.669999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17412.06</v>
+        <v>32763</v>
       </c>
       <c r="C51" t="n">
-        <v>19.3</v>
+        <v>14.9</v>
       </c>
       <c r="D51" t="n">
-        <v>80291.39999999999</v>
+        <v>103899.17</v>
       </c>
       <c r="E51" t="n">
-        <v>31</v>
+        <v>24.3</v>
       </c>
       <c r="F51" t="n">
-        <v>5309.84</v>
+        <v>11808.51</v>
       </c>
       <c r="G51" t="n">
-        <v>22.9</v>
+        <v>12.9</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4726.259999999998</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6113.759999999995</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2255.530000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22495.81</v>
+        <v>36900.19</v>
       </c>
       <c r="C52" t="n">
-        <v>18.7</v>
+        <v>13.7</v>
       </c>
       <c r="D52" t="n">
-        <v>89534.56</v>
+        <v>109988.15</v>
       </c>
       <c r="E52" t="n">
-        <v>28.7</v>
+        <v>24.3</v>
       </c>
       <c r="F52" t="n">
-        <v>7084.31</v>
+        <v>13989.1</v>
       </c>
       <c r="G52" t="n">
-        <v>21.4</v>
+        <v>11.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4137.190000000002</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6088.979999999996</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2180.59</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>28036.74</v>
+        <v>41070.29</v>
       </c>
       <c r="C53" t="n">
-        <v>15.2</v>
+        <v>12.2</v>
       </c>
       <c r="D53" t="n">
-        <v>97785.41</v>
+        <v>115680.8</v>
       </c>
       <c r="E53" t="n">
-        <v>25.8</v>
+        <v>23.3</v>
       </c>
       <c r="F53" t="n">
-        <v>9552.98</v>
+        <v>16882.61</v>
       </c>
       <c r="G53" t="n">
-        <v>15.6</v>
+        <v>9.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4170.099999999999</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5692.650000000009</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2893.51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>32763</v>
+        <v>44987.66</v>
       </c>
       <c r="C54" t="n">
-        <v>14.9</v>
+        <v>11.7</v>
       </c>
       <c r="D54" t="n">
-        <v>103899.17</v>
+        <v>120484.91</v>
       </c>
       <c r="E54" t="n">
-        <v>24.3</v>
+        <v>22.3</v>
       </c>
       <c r="F54" t="n">
-        <v>11808.51</v>
+        <v>19849.59</v>
       </c>
       <c r="G54" t="n">
-        <v>12.9</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3917.370000000003</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4804.110000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2966.98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>36900.19</v>
+        <v>49015.63</v>
       </c>
       <c r="C55" t="n">
-        <v>13.7</v>
+        <v>11.7</v>
       </c>
       <c r="D55" t="n">
-        <v>109988.15</v>
+        <v>125532.31</v>
       </c>
       <c r="E55" t="n">
-        <v>24.3</v>
+        <v>21.7</v>
       </c>
       <c r="F55" t="n">
-        <v>13989.1</v>
+        <v>23607.54</v>
       </c>
       <c r="G55" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4027.969999999994</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5047.399999999994</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3757.950000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>41070.29</v>
+        <v>60413.86</v>
       </c>
       <c r="C56" t="n">
-        <v>12.2</v>
+        <v>10.4</v>
       </c>
       <c r="D56" t="n">
-        <v>115680.8</v>
+        <v>140451.39</v>
       </c>
       <c r="E56" t="n">
-        <v>23.3</v>
+        <v>19.2</v>
       </c>
       <c r="F56" t="n">
-        <v>16882.61</v>
+        <v>42464.87</v>
       </c>
       <c r="G56" t="n">
-        <v>9.5</v>
+        <v>2.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>11398.23</v>
+      </c>
+      <c r="I56" t="n">
+        <v>14919.08000000002</v>
+      </c>
+      <c r="J56" t="n">
+        <v>18857.33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50681.06</v>
+        <v>7498.1</v>
       </c>
       <c r="C57" t="n">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>142968.65</v>
+        <v>63848.4</v>
       </c>
       <c r="E57" t="n">
-        <v>18.5</v>
+        <v>17.2</v>
       </c>
       <c r="F57" t="n">
-        <v>23773.69</v>
+        <v>2334.84</v>
       </c>
       <c r="G57" t="n">
-        <v>19.6</v>
+        <v>21.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7498.1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>63848.4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2334.84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>55126.01</v>
+        <v>14096.6</v>
       </c>
       <c r="C58" t="n">
-        <v>12.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>148851.11</v>
+        <v>83558.64</v>
       </c>
       <c r="E58" t="n">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="F58" t="n">
-        <v>28010.61</v>
+        <v>4161.33</v>
       </c>
       <c r="G58" t="n">
-        <v>18.6</v>
+        <v>13.1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6598.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>19710.24</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1826.49</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>66840.03999999999</v>
+        <v>19590.93</v>
       </c>
       <c r="C59" t="n">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="D59" t="n">
-        <v>164444.97</v>
+        <v>96315.61</v>
       </c>
       <c r="E59" t="n">
-        <v>17.1</v>
+        <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>48792.52</v>
+        <v>5999.14</v>
       </c>
       <c r="G59" t="n">
-        <v>14.9</v>
+        <v>13</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5494.33</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12756.97</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1837.81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7498.1</v>
+        <v>25066.05</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>11.4</v>
       </c>
       <c r="D60" t="n">
-        <v>63848.4</v>
+        <v>106346.94</v>
       </c>
       <c r="E60" t="n">
-        <v>17.2</v>
+        <v>18.8</v>
       </c>
       <c r="F60" t="n">
-        <v>2334.84</v>
+        <v>8095.27</v>
       </c>
       <c r="G60" t="n">
-        <v>21.3</v>
+        <v>13.8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5475.119999999999</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10031.33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2096.13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>14096.6</v>
+        <v>31175.25</v>
       </c>
       <c r="C61" t="n">
-        <v>9.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="D61" t="n">
-        <v>83558.64</v>
+        <v>116270.43</v>
       </c>
       <c r="E61" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="F61" t="n">
-        <v>4161.33</v>
+        <v>11124.36</v>
       </c>
       <c r="G61" t="n">
-        <v>13.1</v>
+        <v>16.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6109.200000000001</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9923.489999999991</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3029.09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>19590.93</v>
+        <v>37128.21</v>
       </c>
       <c r="C62" t="n">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="D62" t="n">
-        <v>96315.61</v>
+        <v>124535.12</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="F62" t="n">
-        <v>5999.14</v>
+        <v>14700.51</v>
       </c>
       <c r="G62" t="n">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5952.959999999999</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8264.690000000002</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3576.15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25066.05</v>
+        <v>41714.9</v>
       </c>
       <c r="C63" t="n">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>106346.94</v>
+        <v>130957.76</v>
       </c>
       <c r="E63" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="F63" t="n">
-        <v>8095.27</v>
+        <v>17460.73</v>
       </c>
       <c r="G63" t="n">
-        <v>13.8</v>
+        <v>24.7</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4586.690000000002</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6422.639999999999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2760.219999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>31175.25</v>
+        <v>46495.57</v>
       </c>
       <c r="C64" t="n">
-        <v>10.9</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>116270.43</v>
+        <v>137325.28</v>
       </c>
       <c r="E64" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="F64" t="n">
-        <v>11124.36</v>
+        <v>20250.01</v>
       </c>
       <c r="G64" t="n">
-        <v>16.3</v>
+        <v>19.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4780.669999999998</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6367.520000000004</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2789.279999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>37128.21</v>
+        <v>50681.06</v>
       </c>
       <c r="C65" t="n">
-        <v>13.3</v>
+        <v>12.5</v>
       </c>
       <c r="D65" t="n">
-        <v>124535.12</v>
+        <v>142968.65</v>
       </c>
       <c r="E65" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="F65" t="n">
-        <v>14700.51</v>
+        <v>23773.69</v>
       </c>
       <c r="G65" t="n">
-        <v>24</v>
+        <v>19.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4185.489999999998</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5643.369999999995</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3523.68</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>41714.9</v>
+        <v>55126.01</v>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D66" t="n">
-        <v>130957.76</v>
+        <v>148851.11</v>
       </c>
       <c r="E66" t="n">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="F66" t="n">
-        <v>17460.73</v>
+        <v>28010.61</v>
       </c>
       <c r="G66" t="n">
-        <v>24.7</v>
+        <v>18.6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4444.950000000004</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5882.459999999992</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4236.920000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>46495.57</v>
+        <v>66840.03999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>10.6</v>
       </c>
       <c r="D67" t="n">
-        <v>137325.28</v>
+        <v>164444.97</v>
       </c>
       <c r="E67" t="n">
-        <v>18.6</v>
+        <v>17.1</v>
       </c>
       <c r="F67" t="n">
-        <v>20250.01</v>
+        <v>48792.52</v>
       </c>
       <c r="G67" t="n">
-        <v>19.7</v>
+        <v>14.9</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11714.02999999999</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15593.86000000002</v>
+      </c>
+      <c r="J67" t="n">
+        <v>20781.91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>59847.52</v>
+        <v>9617.24</v>
       </c>
       <c r="C68" t="n">
-        <v>18.1</v>
+        <v>28.3</v>
       </c>
       <c r="D68" t="n">
-        <v>169840.69</v>
+        <v>80259.71000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>18.8</v>
+        <v>25.7</v>
       </c>
       <c r="F68" t="n">
-        <v>25790.49</v>
+        <v>3368.36</v>
       </c>
       <c r="G68" t="n">
-        <v>8.5</v>
+        <v>44.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9617.24</v>
+      </c>
+      <c r="I68" t="n">
+        <v>80259.71000000001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3368.36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>65048.32</v>
+        <v>17215.92</v>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>22.1</v>
       </c>
       <c r="D69" t="n">
-        <v>176169.71</v>
+        <v>103062.07</v>
       </c>
       <c r="E69" t="n">
-        <v>18.4</v>
+        <v>23.3</v>
       </c>
       <c r="F69" t="n">
-        <v>30471.5</v>
+        <v>5657.16</v>
       </c>
       <c r="G69" t="n">
-        <v>8.800000000000001</v>
+        <v>35.9</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7598.679999999998</v>
+      </c>
+      <c r="I69" t="n">
+        <v>22802.36</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2288.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>78131.35000000001</v>
+        <v>23882.87</v>
       </c>
       <c r="C70" t="n">
-        <v>15.1</v>
+        <v>21.9</v>
       </c>
       <c r="D70" t="n">
-        <v>194090.16</v>
+        <v>117564.67</v>
       </c>
       <c r="E70" t="n">
-        <v>17.1</v>
+        <v>22.1</v>
       </c>
       <c r="F70" t="n">
-        <v>53019.36</v>
+        <v>7888.88</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6</v>
+        <v>31.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6666.950000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>14502.59999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2231.72</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9617.24</v>
+        <v>30246.54</v>
       </c>
       <c r="C71" t="n">
-        <v>28.3</v>
+        <v>20.7</v>
       </c>
       <c r="D71" t="n">
-        <v>80259.71000000001</v>
+        <v>128577.09</v>
       </c>
       <c r="E71" t="n">
-        <v>25.7</v>
+        <v>20.9</v>
       </c>
       <c r="F71" t="n">
-        <v>3368.36</v>
+        <v>10034.66</v>
       </c>
       <c r="G71" t="n">
-        <v>44.3</v>
+        <v>24</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6363.670000000002</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11012.42</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2145.78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>17215.92</v>
+        <v>37904.62</v>
       </c>
       <c r="C72" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="D72" t="n">
-        <v>103062.07</v>
+        <v>140551.89</v>
       </c>
       <c r="E72" t="n">
-        <v>23.3</v>
+        <v>20.9</v>
       </c>
       <c r="F72" t="n">
-        <v>5657.16</v>
+        <v>13390.88</v>
       </c>
       <c r="G72" t="n">
-        <v>35.9</v>
+        <v>20.4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7658.080000000002</v>
+      </c>
+      <c r="I72" t="n">
+        <v>11974.80000000002</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3356.219999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>23882.87</v>
+        <v>43575.58</v>
       </c>
       <c r="C73" t="n">
-        <v>21.9</v>
+        <v>17.4</v>
       </c>
       <c r="D73" t="n">
-        <v>117564.67</v>
+        <v>148498.89</v>
       </c>
       <c r="E73" t="n">
-        <v>22.1</v>
+        <v>19.2</v>
       </c>
       <c r="F73" t="n">
-        <v>7888.88</v>
+        <v>16313.57</v>
       </c>
       <c r="G73" t="n">
-        <v>31.5</v>
+        <v>11</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5670.959999999999</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7947</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2922.690000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>30246.54</v>
+        <v>48740.93</v>
       </c>
       <c r="C74" t="n">
-        <v>20.7</v>
+        <v>16.8</v>
       </c>
       <c r="D74" t="n">
-        <v>128577.09</v>
+        <v>155122.52</v>
       </c>
       <c r="E74" t="n">
-        <v>20.9</v>
+        <v>18.5</v>
       </c>
       <c r="F74" t="n">
-        <v>10034.66</v>
+        <v>18919.34</v>
       </c>
       <c r="G74" t="n">
-        <v>24</v>
+        <v>8.4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5165.349999999999</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6623.629999999976</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2605.77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>37904.62</v>
+        <v>54885.49</v>
       </c>
       <c r="C75" t="n">
-        <v>21.6</v>
+        <v>18</v>
       </c>
       <c r="D75" t="n">
-        <v>140551.89</v>
+        <v>163273.63</v>
       </c>
       <c r="E75" t="n">
-        <v>20.9</v>
+        <v>18.9</v>
       </c>
       <c r="F75" t="n">
-        <v>13390.88</v>
+        <v>22014.83</v>
       </c>
       <c r="G75" t="n">
-        <v>20.4</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6144.559999999998</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8151.110000000015</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3095.490000000002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>43575.58</v>
+        <v>59847.52</v>
       </c>
       <c r="C76" t="n">
-        <v>17.4</v>
+        <v>18.1</v>
       </c>
       <c r="D76" t="n">
-        <v>148498.89</v>
+        <v>169840.69</v>
       </c>
       <c r="E76" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="F76" t="n">
-        <v>16313.57</v>
+        <v>25790.49</v>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>8.5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4962.029999999999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6567.059999999998</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3775.66</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>48740.93</v>
+        <v>65048.32</v>
       </c>
       <c r="C77" t="n">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>155122.52</v>
+        <v>176169.71</v>
       </c>
       <c r="E77" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="F77" t="n">
-        <v>18919.34</v>
+        <v>30471.5</v>
       </c>
       <c r="G77" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5200.800000000003</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6329.01999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4681.009999999998</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>54885.49</v>
+        <v>78131.35000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>18</v>
+        <v>15.1</v>
       </c>
       <c r="D78" t="n">
-        <v>163273.63</v>
+        <v>194090.16</v>
       </c>
       <c r="E78" t="n">
-        <v>18.9</v>
+        <v>17.1</v>
       </c>
       <c r="F78" t="n">
-        <v>22014.83</v>
+        <v>53019.36</v>
       </c>
       <c r="G78" t="n">
-        <v>8.699999999999999</v>
+        <v>-0.6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>13083.03000000001</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17920.45000000001</v>
+      </c>
+      <c r="J78" t="n">
+        <v>22547.86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>73393.32000000001</v>
+        <v>9966.74</v>
       </c>
       <c r="C79" t="n">
-        <v>22.6</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="n">
-        <v>208565.69</v>
+        <v>94210.69</v>
       </c>
       <c r="E79" t="n">
-        <v>22.8</v>
+        <v>17.4</v>
       </c>
       <c r="F79" t="n">
-        <v>28134.75</v>
+        <v>3330.54</v>
       </c>
       <c r="G79" t="n">
-        <v>9.1</v>
+        <v>-1.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9966.74</v>
+      </c>
+      <c r="I79" t="n">
+        <v>94210.69</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3330.54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>79935.57000000001</v>
+        <v>19044.23</v>
       </c>
       <c r="C80" t="n">
-        <v>22.9</v>
+        <v>10.6</v>
       </c>
       <c r="D80" t="n">
-        <v>216629.25</v>
+        <v>124377.13</v>
       </c>
       <c r="E80" t="n">
-        <v>23</v>
+        <v>20.7</v>
       </c>
       <c r="F80" t="n">
-        <v>33061.21</v>
+        <v>6192.19</v>
       </c>
       <c r="G80" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9077.49</v>
+      </c>
+      <c r="I80" t="n">
+        <v>30166.44</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2861.65</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>94590.2</v>
+        <v>27382.31</v>
       </c>
       <c r="C81" t="n">
-        <v>19.4</v>
+        <v>14.7</v>
       </c>
       <c r="D81" t="n">
-        <v>235881.61</v>
+        <v>142615.71</v>
       </c>
       <c r="E81" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="F81" t="n">
-        <v>58235.88</v>
+        <v>8711.57</v>
       </c>
       <c r="G81" t="n">
-        <v>4.3</v>
+        <v>10.4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8338.080000000002</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18238.57999999999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2519.38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9966.74</v>
+        <v>35510.34</v>
       </c>
       <c r="C82" t="n">
-        <v>3.6</v>
+        <v>17.4</v>
       </c>
       <c r="D82" t="n">
-        <v>94210.69</v>
+        <v>156739.87</v>
       </c>
       <c r="E82" t="n">
-        <v>17.4</v>
+        <v>21.9</v>
       </c>
       <c r="F82" t="n">
-        <v>3330.54</v>
+        <v>11196.87</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.1</v>
+        <v>11.6</v>
+      </c>
+      <c r="H82" t="n">
+        <v>8128.029999999995</v>
+      </c>
+      <c r="I82" t="n">
+        <v>14124.16</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2485.300000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>19044.23</v>
+        <v>44891.97</v>
       </c>
       <c r="C83" t="n">
-        <v>10.6</v>
+        <v>18.4</v>
       </c>
       <c r="D83" t="n">
-        <v>124377.13</v>
+        <v>171375.6</v>
       </c>
       <c r="E83" t="n">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="F83" t="n">
-        <v>6192.19</v>
+        <v>14870.66</v>
       </c>
       <c r="G83" t="n">
-        <v>9.5</v>
+        <v>11.1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9381.630000000005</v>
+      </c>
+      <c r="I83" t="n">
+        <v>14635.73000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3673.789999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>27382.31</v>
+        <v>52557.66</v>
       </c>
       <c r="C84" t="n">
-        <v>14.7</v>
+        <v>20.6</v>
       </c>
       <c r="D84" t="n">
-        <v>142615.71</v>
+        <v>181937.89</v>
       </c>
       <c r="E84" t="n">
-        <v>21.3</v>
+        <v>22.5</v>
       </c>
       <c r="F84" t="n">
-        <v>8711.57</v>
+        <v>17939.48</v>
       </c>
       <c r="G84" t="n">
-        <v>10.4</v>
+        <v>10</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7665.690000000002</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10562.29000000001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3068.82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>35510.34</v>
+        <v>59272.37</v>
       </c>
       <c r="C85" t="n">
-        <v>17.4</v>
+        <v>21.6</v>
       </c>
       <c r="D85" t="n">
-        <v>156739.87</v>
+        <v>190302.36</v>
       </c>
       <c r="E85" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="F85" t="n">
-        <v>11196.87</v>
+        <v>20834.65</v>
       </c>
       <c r="G85" t="n">
-        <v>11.6</v>
+        <v>10.1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6714.709999999999</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8364.469999999972</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2895.170000000002</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>44891.97</v>
+        <v>66727.97</v>
       </c>
       <c r="C86" t="n">
-        <v>18.4</v>
+        <v>21.6</v>
       </c>
       <c r="D86" t="n">
-        <v>171375.6</v>
+        <v>199866.63</v>
       </c>
       <c r="E86" t="n">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="F86" t="n">
-        <v>14870.66</v>
+        <v>24436.62</v>
       </c>
       <c r="G86" t="n">
-        <v>11.1</v>
+        <v>11</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7455.599999999999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9564.270000000019</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3601.969999999998</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>52557.66</v>
+        <v>73393.32000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>20.6</v>
+        <v>22.6</v>
       </c>
       <c r="D87" t="n">
-        <v>181937.89</v>
+        <v>208565.69</v>
       </c>
       <c r="E87" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="F87" t="n">
-        <v>17939.48</v>
+        <v>28134.75</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>9.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>6665.350000000006</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8699.059999999998</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3698.130000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>59272.37</v>
+        <v>79935.57000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>21.6</v>
+        <v>22.9</v>
       </c>
       <c r="D88" t="n">
-        <v>190302.36</v>
+        <v>216629.25</v>
       </c>
       <c r="E88" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="F88" t="n">
-        <v>20834.65</v>
+        <v>33061.21</v>
       </c>
       <c r="G88" t="n">
-        <v>10.1</v>
+        <v>8.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6542.25</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8063.559999999998</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4926.459999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>66727.97</v>
+        <v>94590.2</v>
       </c>
       <c r="C89" t="n">
-        <v>21.6</v>
+        <v>19.4</v>
       </c>
       <c r="D89" t="n">
-        <v>199866.63</v>
+        <v>235881.61</v>
       </c>
       <c r="E89" t="n">
-        <v>22.4</v>
+        <v>21.1</v>
       </c>
       <c r="F89" t="n">
-        <v>24436.62</v>
+        <v>58235.88</v>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>4.3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>14654.62999999999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>19252.35999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>25174.67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>78772.28</v>
+        <v>12679.1</v>
       </c>
       <c r="C90" t="n">
-        <v>7.3</v>
+        <v>27.2</v>
       </c>
       <c r="D90" t="n">
-        <v>247635.346</v>
+        <v>124405.79</v>
       </c>
       <c r="E90" t="n">
-        <v>18.7</v>
+        <v>32.1</v>
       </c>
       <c r="F90" t="n">
-        <v>30691.6864</v>
+        <v>4381.65</v>
       </c>
       <c r="G90" t="n">
-        <v>9.1</v>
+        <v>31.6</v>
+      </c>
+      <c r="H90" t="n">
+        <v>12679.1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>124405.79</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4381.65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>84289.50999999999</v>
+        <v>23901.85</v>
       </c>
       <c r="C91" t="n">
-        <v>5.4</v>
+        <v>25.5</v>
       </c>
       <c r="D91" t="n">
-        <v>254936.14</v>
+        <v>158392.45</v>
       </c>
       <c r="E91" t="n">
-        <v>17.7</v>
+        <v>27.3</v>
       </c>
       <c r="F91" t="n">
-        <v>35084.23</v>
+        <v>7785.72</v>
       </c>
       <c r="G91" t="n">
-        <v>6.1</v>
+        <v>25.7</v>
+      </c>
+      <c r="H91" t="n">
+        <v>11222.75</v>
+      </c>
+      <c r="I91" t="n">
+        <v>33986.66000000002</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3404.070000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>97573.89999999999</v>
+        <v>32969.96</v>
       </c>
       <c r="C92" t="n">
-        <v>2.3</v>
+        <v>20.4</v>
       </c>
       <c r="D92" t="n">
-        <v>274149.0111</v>
+        <v>178864.3871</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>25.4</v>
       </c>
       <c r="F92" t="n">
-        <v>58502.0116</v>
+        <v>10411.0292</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.5</v>
+        <v>19.5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9068.110000000001</v>
+      </c>
+      <c r="I92" t="n">
+        <v>20471.93709999998</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2625.309200000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>12679.1</v>
+        <v>42525.71</v>
       </c>
       <c r="C93" t="n">
-        <v>27.2</v>
+        <v>19.8</v>
       </c>
       <c r="D93" t="n">
-        <v>124405.79</v>
+        <v>195699.299</v>
       </c>
       <c r="E93" t="n">
-        <v>32.1</v>
+        <v>24.9</v>
       </c>
       <c r="F93" t="n">
-        <v>4381.65</v>
+        <v>13233.2246</v>
       </c>
       <c r="G93" t="n">
-        <v>31.6</v>
+        <v>18.2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>9555.75</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16834.91190000001</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2822.195399999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>23901.85</v>
+        <v>53472.78</v>
       </c>
       <c r="C94" t="n">
-        <v>25.5</v>
+        <v>19.1</v>
       </c>
       <c r="D94" t="n">
-        <v>158392.45</v>
+        <v>212660.4581</v>
       </c>
       <c r="E94" t="n">
-        <v>27.3</v>
+        <v>24.1</v>
       </c>
       <c r="F94" t="n">
-        <v>7785.72</v>
+        <v>16920.2836</v>
       </c>
       <c r="G94" t="n">
-        <v>25.7</v>
+        <v>13.8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>10947.07</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16961.15909999999</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3687.058999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>32969.96</v>
+        <v>60509.99</v>
       </c>
       <c r="C95" t="n">
-        <v>20.4</v>
+        <v>15.1</v>
       </c>
       <c r="D95" t="n">
-        <v>178864.3871</v>
+        <v>222896.6964</v>
       </c>
       <c r="E95" t="n">
-        <v>25.4</v>
+        <v>22.5</v>
       </c>
       <c r="F95" t="n">
-        <v>10411.0292</v>
+        <v>20382.387</v>
       </c>
       <c r="G95" t="n">
-        <v>19.5</v>
+        <v>13.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7037.209999999999</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10236.2383</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3462.1034</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>42525.71</v>
+        <v>67048.63</v>
       </c>
       <c r="C96" t="n">
-        <v>19.8</v>
+        <v>13.1</v>
       </c>
       <c r="D96" t="n">
-        <v>195699.299</v>
+        <v>231607.9402</v>
       </c>
       <c r="E96" t="n">
-        <v>24.9</v>
+        <v>21.7</v>
       </c>
       <c r="F96" t="n">
-        <v>13233.2246</v>
+        <v>23371.4492</v>
       </c>
       <c r="G96" t="n">
-        <v>18.2</v>
+        <v>12.2</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6538.640000000007</v>
+      </c>
+      <c r="I96" t="n">
+        <v>8711.243800000026</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2989.0622</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>53472.78</v>
+        <v>73521.25</v>
       </c>
       <c r="C97" t="n">
-        <v>19.1</v>
+        <v>10.2</v>
       </c>
       <c r="D97" t="n">
-        <v>212660.4581</v>
+        <v>240384.3784</v>
       </c>
       <c r="E97" t="n">
-        <v>24.1</v>
+        <v>20.3</v>
       </c>
       <c r="F97" t="n">
-        <v>16920.2836</v>
+        <v>26804.6636</v>
       </c>
       <c r="G97" t="n">
-        <v>13.8</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6472.619999999995</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8776.438199999975</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3433.214400000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>60509.99</v>
+        <v>78772.28</v>
       </c>
       <c r="C98" t="n">
-        <v>15.1</v>
+        <v>7.3</v>
       </c>
       <c r="D98" t="n">
-        <v>222896.6964</v>
+        <v>247635.346</v>
       </c>
       <c r="E98" t="n">
-        <v>22.5</v>
+        <v>18.7</v>
       </c>
       <c r="F98" t="n">
-        <v>20382.387</v>
+        <v>30691.6864</v>
       </c>
       <c r="G98" t="n">
-        <v>13.6</v>
+        <v>9.1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5251.029999999999</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7250.967600000004</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3887.022799999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>67048.63</v>
+        <v>84289.50999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>13.1</v>
+        <v>5.4</v>
       </c>
       <c r="D99" t="n">
-        <v>231607.9402</v>
+        <v>254936.14</v>
       </c>
       <c r="E99" t="n">
-        <v>21.7</v>
+        <v>17.7</v>
       </c>
       <c r="F99" t="n">
-        <v>23371.4492</v>
+        <v>35084.23</v>
       </c>
       <c r="G99" t="n">
-        <v>12.2</v>
+        <v>6.1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5517.229999999996</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7300.794000000024</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4392.543600000005</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>73521.25</v>
+        <v>97573.89999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="D100" t="n">
-        <v>240384.3784</v>
+        <v>274149.0111</v>
       </c>
       <c r="E100" t="n">
-        <v>20.3</v>
+        <v>16</v>
       </c>
       <c r="F100" t="n">
-        <v>26804.6636</v>
+        <v>58502.0116</v>
       </c>
       <c r="G100" t="n">
-        <v>9.699999999999999</v>
+        <v>-3.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>13284.39</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19212.87109999999</v>
+      </c>
+      <c r="J100" t="n">
+        <v>23417.78159999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>81374.61</v>
+        <v>10798.4</v>
       </c>
       <c r="C101" t="n">
-        <v>3.3</v>
+        <v>-14.8</v>
       </c>
       <c r="D101" t="n">
-        <v>288262.8292</v>
+        <v>142061.03</v>
       </c>
       <c r="E101" t="n">
-        <v>16.4</v>
+        <v>14.2</v>
       </c>
       <c r="F101" t="n">
-        <v>37695.2372</v>
+        <v>5650.57</v>
       </c>
       <c r="G101" t="n">
-        <v>22.8</v>
+        <v>29</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10798.4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>142061.03</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5650.57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>97573.64999999999</v>
+        <v>20082.36</v>
       </c>
       <c r="C102" t="n">
-        <v>15.8</v>
+        <v>-16.2</v>
       </c>
       <c r="D102" t="n">
-        <v>298839.83</v>
+        <v>178718.1291</v>
       </c>
       <c r="E102" t="n">
-        <v>17.2</v>
+        <v>12.7</v>
       </c>
       <c r="F102" t="n">
-        <v>44248.87</v>
+        <v>9922.3313</v>
       </c>
       <c r="G102" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>9283.960000000001</v>
+      </c>
+      <c r="I102" t="n">
+        <v>36657.09909999999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4271.7613</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>115385.34</v>
+        <v>27836.75</v>
       </c>
       <c r="C103" t="n">
-        <v>12.5</v>
+        <v>-15.6</v>
       </c>
       <c r="D103" t="n">
-        <v>319649.541</v>
+        <v>200977.72</v>
       </c>
       <c r="E103" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F103" t="n">
-        <v>70218.7632</v>
+        <v>13230.97</v>
       </c>
       <c r="G103" t="n">
-        <v>5.5</v>
+        <v>27.1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7754.389999999999</v>
+      </c>
+      <c r="I103" t="n">
+        <v>22259.59090000001</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3308.6387</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>10798.4</v>
+        <v>35652.2</v>
       </c>
       <c r="C104" t="n">
-        <v>-14.8</v>
+        <v>-16.2</v>
       </c>
       <c r="D104" t="n">
-        <v>142061.03</v>
+        <v>218526.9675</v>
       </c>
       <c r="E104" t="n">
-        <v>14.2</v>
+        <v>11.7</v>
       </c>
       <c r="F104" t="n">
-        <v>5650.57</v>
+        <v>16218.7859</v>
       </c>
       <c r="G104" t="n">
-        <v>29</v>
+        <v>22.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7815.449999999997</v>
+      </c>
+      <c r="I104" t="n">
+        <v>17549.2475</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2987.815900000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>20082.36</v>
+        <v>47921.45</v>
       </c>
       <c r="C105" t="n">
-        <v>-16.2</v>
+        <v>-10.4</v>
       </c>
       <c r="D105" t="n">
-        <v>178718.1291</v>
+        <v>239697.1</v>
       </c>
       <c r="E105" t="n">
         <v>12.7</v>
       </c>
       <c r="F105" t="n">
-        <v>9922.3313</v>
+        <v>20692.27</v>
       </c>
       <c r="G105" t="n">
-        <v>26.3</v>
+        <v>22.3</v>
+      </c>
+      <c r="H105" t="n">
+        <v>12269.25</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21170.13250000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4473.4841</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>27836.75</v>
+        <v>54979.73</v>
       </c>
       <c r="C106" t="n">
-        <v>-15.6</v>
+        <v>-9.1</v>
       </c>
       <c r="D106" t="n">
-        <v>200977.72</v>
+        <v>250746.5029</v>
       </c>
       <c r="E106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F106" t="n">
-        <v>13230.97</v>
+        <v>25422.0506</v>
       </c>
       <c r="G106" t="n">
-        <v>27.1</v>
+        <v>24.7</v>
+      </c>
+      <c r="H106" t="n">
+        <v>7058.280000000006</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11049.40289999999</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4729.780599999998</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>35652.2</v>
+        <v>63107.06</v>
       </c>
       <c r="C107" t="n">
-        <v>-16.2</v>
+        <v>-5.9</v>
       </c>
       <c r="D107" t="n">
-        <v>218526.9675</v>
+        <v>262887.32</v>
       </c>
       <c r="E107" t="n">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="F107" t="n">
-        <v>16218.7859</v>
+        <v>29246.54</v>
       </c>
       <c r="G107" t="n">
-        <v>22.6</v>
+        <v>25.1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8127.329999999994</v>
+      </c>
+      <c r="I107" t="n">
+        <v>12140.81710000001</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3824.489400000002</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>47921.45</v>
+        <v>73223.49000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>-10.4</v>
+        <v>-0.4</v>
       </c>
       <c r="D108" t="n">
-        <v>239697.1</v>
+        <v>277473.1343</v>
       </c>
       <c r="E108" t="n">
-        <v>12.7</v>
+        <v>15.4</v>
       </c>
       <c r="F108" t="n">
-        <v>20692.27</v>
+        <v>33425.5525</v>
       </c>
       <c r="G108" t="n">
-        <v>22.3</v>
+        <v>24.7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>10116.43000000001</v>
+      </c>
+      <c r="I108" t="n">
+        <v>14585.81429999997</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4179.012499999997</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>54979.73</v>
+        <v>81374.61</v>
       </c>
       <c r="C109" t="n">
-        <v>-9.1</v>
+        <v>3.3</v>
       </c>
       <c r="D109" t="n">
-        <v>250746.5029</v>
+        <v>288262.8292</v>
       </c>
       <c r="E109" t="n">
-        <v>12.5</v>
+        <v>16.4</v>
       </c>
       <c r="F109" t="n">
-        <v>25422.0506</v>
+        <v>37695.2372</v>
       </c>
       <c r="G109" t="n">
-        <v>24.7</v>
+        <v>22.8</v>
+      </c>
+      <c r="H109" t="n">
+        <v>8151.119999999995</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10789.6949</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4269.684700000005</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>63107.06</v>
+        <v>97573.64999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.9</v>
+        <v>15.8</v>
       </c>
       <c r="D110" t="n">
-        <v>262887.32</v>
+        <v>298839.83</v>
       </c>
       <c r="E110" t="n">
-        <v>13.5</v>
+        <v>17.2</v>
       </c>
       <c r="F110" t="n">
-        <v>29246.54</v>
+        <v>44248.87</v>
       </c>
       <c r="G110" t="n">
-        <v>25.1</v>
+        <v>26.1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>16199.03999999999</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10577.00080000004</v>
+      </c>
+      <c r="J110" t="n">
+        <v>6553.632799999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>73223.49000000001</v>
+        <v>115385.34</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.4</v>
+        <v>12.5</v>
       </c>
       <c r="D111" t="n">
-        <v>277473.1343</v>
+        <v>319649.541</v>
       </c>
       <c r="E111" t="n">
-        <v>15.4</v>
+        <v>12.8</v>
       </c>
       <c r="F111" t="n">
-        <v>33425.5525</v>
+        <v>70218.7632</v>
       </c>
       <c r="G111" t="n">
-        <v>24.7</v>
+        <v>5.5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>17811.69</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20809.71100000001</v>
+      </c>
+      <c r="J111" t="n">
+        <v>25969.8932</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>131756.4604</v>
+        <v>14914.32</v>
       </c>
       <c r="C112" t="n">
-        <v>61.9</v>
+        <v>37.5</v>
       </c>
       <c r="D112" t="n">
-        <v>369796.7878</v>
+        <v>209687.367</v>
       </c>
       <c r="E112" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="F112" t="n">
-        <v>41966.3824</v>
+        <v>6100.8687</v>
       </c>
       <c r="G112" t="n">
-        <v>11.4</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>14914.32</v>
+      </c>
+      <c r="I112" t="n">
+        <v>209687.367</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6100.8687</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>145130.0041</v>
+        <v>32288.6</v>
       </c>
       <c r="C113" t="n">
-        <v>48.7</v>
+        <v>60.8</v>
       </c>
       <c r="D113" t="n">
-        <v>384277.1536</v>
+        <v>242202.6757</v>
       </c>
       <c r="E113" t="n">
-        <v>28.6</v>
+        <v>35.5</v>
       </c>
       <c r="F113" t="n">
-        <v>48497.3937</v>
+        <v>11116.9581</v>
       </c>
       <c r="G113" t="n">
-        <v>9.6</v>
+        <v>12</v>
+      </c>
+      <c r="H113" t="n">
+        <v>17374.28</v>
+      </c>
+      <c r="I113" t="n">
+        <v>32515.30869999999</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5016.0894</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>163776.6681</v>
+        <v>45686.81</v>
       </c>
       <c r="C114" t="n">
-        <v>40.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>405538.9149</v>
+        <v>264631.1405</v>
       </c>
       <c r="E114" t="n">
-        <v>26.6</v>
+        <v>31.7</v>
       </c>
       <c r="F114" t="n">
-        <v>75960.97319999999</v>
+        <v>15020.0557</v>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>13.5</v>
+      </c>
+      <c r="H114" t="n">
+        <v>13398.21</v>
+      </c>
+      <c r="I114" t="n">
+        <v>22428.46479999999</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3903.097600000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>14914.32</v>
+        <v>61462.64</v>
       </c>
       <c r="C115" t="n">
-        <v>37.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>209687.367</v>
+        <v>285085.24</v>
       </c>
       <c r="E115" t="n">
-        <v>29.3</v>
+        <v>30.5</v>
       </c>
       <c r="F115" t="n">
-        <v>6100.8687</v>
+        <v>19158.11</v>
       </c>
       <c r="G115" t="n">
-        <v>8.199999999999999</v>
+        <v>18.1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>15775.83</v>
+      </c>
+      <c r="I115" t="n">
+        <v>20454.09950000001</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4138.0543</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>32288.6</v>
+        <v>80450.94</v>
       </c>
       <c r="C116" t="n">
-        <v>60.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>242202.6757</v>
+        <v>308427.72</v>
       </c>
       <c r="E116" t="n">
-        <v>35.5</v>
+        <v>28.7</v>
       </c>
       <c r="F116" t="n">
-        <v>11116.9581</v>
+        <v>24423.57</v>
       </c>
       <c r="G116" t="n">
-        <v>12</v>
+        <v>18.2</v>
+      </c>
+      <c r="H116" t="n">
+        <v>18988.3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>23342.47999999998</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5265.459999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>45686.81</v>
+        <v>92183.27</v>
       </c>
       <c r="C117" t="n">
-        <v>64.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D117" t="n">
-        <v>264631.1405</v>
+        <v>324259.3939</v>
       </c>
       <c r="E117" t="n">
-        <v>31.7</v>
+        <v>29.4</v>
       </c>
       <c r="F117" t="n">
-        <v>15020.0557</v>
+        <v>28603.4765</v>
       </c>
       <c r="G117" t="n">
-        <v>13.5</v>
+        <v>12.6</v>
+      </c>
+      <c r="H117" t="n">
+        <v>11732.33</v>
+      </c>
+      <c r="I117" t="n">
+        <v>15831.67390000005</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4179.906500000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>61462.64</v>
+        <v>104847.46</v>
       </c>
       <c r="C118" t="n">
-        <v>72.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>285085.24</v>
+        <v>339180.73</v>
       </c>
       <c r="E118" t="n">
-        <v>30.5</v>
+        <v>29.1</v>
       </c>
       <c r="F118" t="n">
-        <v>19158.11</v>
+        <v>32347.59</v>
       </c>
       <c r="G118" t="n">
-        <v>18.1</v>
+        <v>10.7</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12664.19</v>
+      </c>
+      <c r="I118" t="n">
+        <v>14921.33609999996</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3744.113499999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>80450.94</v>
+        <v>119441</v>
       </c>
       <c r="C119" t="n">
-        <v>67.90000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="D119" t="n">
-        <v>308427.72</v>
+        <v>355402.1954</v>
       </c>
       <c r="E119" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="F119" t="n">
-        <v>24423.57</v>
+        <v>36874.9567</v>
       </c>
       <c r="G119" t="n">
-        <v>18.2</v>
+        <v>10.4</v>
+      </c>
+      <c r="H119" t="n">
+        <v>14593.53999999999</v>
+      </c>
+      <c r="I119" t="n">
+        <v>16221.46540000004</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4527.366700000002</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>92183.27</v>
+        <v>131756.4604</v>
       </c>
       <c r="C120" t="n">
-        <v>67.7</v>
+        <v>61.9</v>
       </c>
       <c r="D120" t="n">
-        <v>324259.3939</v>
+        <v>369796.7878</v>
       </c>
       <c r="E120" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="F120" t="n">
-        <v>28603.4765</v>
+        <v>41966.3824</v>
       </c>
       <c r="G120" t="n">
-        <v>12.6</v>
+        <v>11.4</v>
+      </c>
+      <c r="H120" t="n">
+        <v>12315.46040000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>14394.59239999996</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5091.4257</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>104847.46</v>
+        <v>145130.0041</v>
       </c>
       <c r="C121" t="n">
-        <v>66.09999999999999</v>
+        <v>48.7</v>
       </c>
       <c r="D121" t="n">
-        <v>339180.73</v>
+        <v>384277.1536</v>
       </c>
       <c r="E121" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F121" t="n">
-        <v>32347.59</v>
+        <v>48497.3937</v>
       </c>
       <c r="G121" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
+      </c>
+      <c r="H121" t="n">
+        <v>13373.54369999998</v>
+      </c>
+      <c r="I121" t="n">
+        <v>14480.36580000003</v>
+      </c>
+      <c r="J121" t="n">
+        <v>6531.011299999998</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>119441</v>
+        <v>163776.6681</v>
       </c>
       <c r="C122" t="n">
-        <v>63.1</v>
+        <v>40.7</v>
       </c>
       <c r="D122" t="n">
-        <v>355402.1954</v>
+        <v>405538.9149</v>
       </c>
       <c r="E122" t="n">
-        <v>28.1</v>
+        <v>26.6</v>
       </c>
       <c r="F122" t="n">
-        <v>36874.9567</v>
+        <v>75960.97319999999</v>
       </c>
       <c r="G122" t="n">
-        <v>10.4</v>
+        <v>4.5</v>
+      </c>
+      <c r="H122" t="n">
+        <v>18646.66400000002</v>
+      </c>
+      <c r="I122" t="n">
+        <v>21261.76129999995</v>
+      </c>
+      <c r="J122" t="n">
+        <v>27463.57949999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>160362.1857</v>
+        <v>19082.7866</v>
       </c>
       <c r="C123" t="n">
-        <v>21.7</v>
+        <v>27.9</v>
       </c>
       <c r="D123" t="n">
-        <v>474785.6719</v>
+        <v>291472.975</v>
       </c>
       <c r="E123" t="n">
-        <v>28.4</v>
+        <v>39</v>
       </c>
       <c r="F123" t="n">
-        <v>49720.6746</v>
+        <v>6951.5217</v>
       </c>
       <c r="G123" t="n">
-        <v>18.5</v>
+        <v>13.9</v>
+      </c>
+      <c r="H123" t="n">
+        <v>19082.7866</v>
+      </c>
+      <c r="I123" t="n">
+        <v>291472.975</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6951.5217</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>174951.7541</v>
+        <v>39842.4263</v>
       </c>
       <c r="C124" t="n">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="D124" t="n">
-        <v>491311.0611</v>
+        <v>327401.7636</v>
       </c>
       <c r="E124" t="n">
-        <v>27.9</v>
+        <v>35.2</v>
       </c>
       <c r="F124" t="n">
-        <v>59326.1669</v>
+        <v>12831.5112</v>
       </c>
       <c r="G124" t="n">
-        <v>22.3</v>
+        <v>15.4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>20759.6397</v>
+      </c>
+      <c r="I124" t="n">
+        <v>35928.78860000003</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5879.989500000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>190082.7045</v>
+        <v>56840.511</v>
       </c>
       <c r="C125" t="n">
-        <v>16.2</v>
+        <v>24.4</v>
       </c>
       <c r="D125" t="n">
-        <v>507959.3932</v>
+        <v>352471.6232</v>
       </c>
       <c r="E125" t="n">
-        <v>25.3</v>
+        <v>33.2</v>
       </c>
       <c r="F125" t="n">
-        <v>89244.24800000001</v>
+        <v>17126.9746</v>
       </c>
       <c r="G125" t="n">
-        <v>13.3</v>
+        <v>14</v>
+      </c>
+      <c r="H125" t="n">
+        <v>16998.0847</v>
+      </c>
+      <c r="I125" t="n">
+        <v>25069.85959999997</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4295.463400000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>19082.7866</v>
+        <v>76118.1591</v>
       </c>
       <c r="C126" t="n">
-        <v>27.9</v>
+        <v>23.8</v>
       </c>
       <c r="D126" t="n">
-        <v>291472.975</v>
+        <v>377516.0426</v>
       </c>
       <c r="E126" t="n">
-        <v>39</v>
+        <v>32.4</v>
       </c>
       <c r="F126" t="n">
-        <v>6951.5217</v>
+        <v>21620.5071</v>
       </c>
       <c r="G126" t="n">
-        <v>13.9</v>
+        <v>12.9</v>
+      </c>
+      <c r="H126" t="n">
+        <v>19277.64810000001</v>
+      </c>
+      <c r="I126" t="n">
+        <v>25044.41940000001</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4493.532499999998</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>39842.4263</v>
+        <v>99442.59299999999</v>
       </c>
       <c r="C127" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="D127" t="n">
-        <v>327401.7636</v>
+        <v>405737.558</v>
       </c>
       <c r="E127" t="n">
-        <v>35.2</v>
+        <v>31.6</v>
       </c>
       <c r="F127" t="n">
-        <v>12831.5112</v>
+        <v>27558.0328</v>
       </c>
       <c r="G127" t="n">
-        <v>15.4</v>
+        <v>12.8</v>
+      </c>
+      <c r="H127" t="n">
+        <v>23324.43389999999</v>
+      </c>
+      <c r="I127" t="n">
+        <v>28221.51540000003</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5937.525700000002</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>56840.511</v>
+        <v>115169.1648</v>
       </c>
       <c r="C128" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="D128" t="n">
-        <v>352471.6232</v>
+        <v>424195.252</v>
       </c>
       <c r="E128" t="n">
-        <v>33.2</v>
+        <v>30.8</v>
       </c>
       <c r="F128" t="n">
-        <v>17126.9746</v>
+        <v>32445.4262</v>
       </c>
       <c r="G128" t="n">
-        <v>14</v>
+        <v>13.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>15726.57180000001</v>
+      </c>
+      <c r="I128" t="n">
+        <v>18457.69399999996</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4887.393400000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>76118.1591</v>
+        <v>131880.6659</v>
       </c>
       <c r="C129" t="n">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="D129" t="n">
-        <v>377516.0426</v>
+        <v>442615.9636</v>
       </c>
       <c r="E129" t="n">
-        <v>32.4</v>
+        <v>30.5</v>
       </c>
       <c r="F129" t="n">
-        <v>21620.5071</v>
+        <v>37094.983</v>
       </c>
       <c r="G129" t="n">
-        <v>12.9</v>
+        <v>14.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>16711.50109999999</v>
+      </c>
+      <c r="I129" t="n">
+        <v>18420.71160000004</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4649.556799999998</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>99442.59299999999</v>
+        <v>147774.6909</v>
       </c>
       <c r="C130" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D130" t="n">
-        <v>405737.558</v>
+        <v>460785.5526</v>
       </c>
       <c r="E130" t="n">
-        <v>31.6</v>
+        <v>29.7</v>
       </c>
       <c r="F130" t="n">
-        <v>27558.0328</v>
+        <v>43455.981</v>
       </c>
       <c r="G130" t="n">
-        <v>12.8</v>
+        <v>17.8</v>
+      </c>
+      <c r="H130" t="n">
+        <v>15894.02499999999</v>
+      </c>
+      <c r="I130" t="n">
+        <v>18169.58899999998</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6360.998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>115169.1648</v>
+        <v>160362.1857</v>
       </c>
       <c r="C131" t="n">
-        <v>24.9</v>
+        <v>21.7</v>
       </c>
       <c r="D131" t="n">
-        <v>424195.252</v>
+        <v>474785.6719</v>
       </c>
       <c r="E131" t="n">
-        <v>30.8</v>
+        <v>28.4</v>
       </c>
       <c r="F131" t="n">
-        <v>32445.4262</v>
+        <v>49720.6746</v>
       </c>
       <c r="G131" t="n">
-        <v>13.4</v>
+        <v>18.5</v>
+      </c>
+      <c r="H131" t="n">
+        <v>12587.49480000001</v>
+      </c>
+      <c r="I131" t="n">
+        <v>14000.11930000002</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6264.693599999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>131880.6659</v>
+        <v>174951.7541</v>
       </c>
       <c r="C132" t="n">
-        <v>25.8</v>
+        <v>20.5</v>
       </c>
       <c r="D132" t="n">
-        <v>442615.9636</v>
+        <v>491311.0611</v>
       </c>
       <c r="E132" t="n">
-        <v>30.5</v>
+        <v>27.9</v>
       </c>
       <c r="F132" t="n">
-        <v>37094.983</v>
+        <v>59326.1669</v>
       </c>
       <c r="G132" t="n">
-        <v>14.7</v>
+        <v>22.3</v>
+      </c>
+      <c r="H132" t="n">
+        <v>14589.56839999999</v>
+      </c>
+      <c r="I132" t="n">
+        <v>16525.38919999998</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9605.492299999998</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>147774.6909</v>
+        <v>190082.7045</v>
       </c>
       <c r="C133" t="n">
-        <v>23.7</v>
+        <v>16.2</v>
       </c>
       <c r="D133" t="n">
-        <v>460785.5526</v>
+        <v>507959.3932</v>
       </c>
       <c r="E133" t="n">
-        <v>29.7</v>
+        <v>25.3</v>
       </c>
       <c r="F133" t="n">
-        <v>43455.981</v>
+        <v>89244.24800000001</v>
       </c>
       <c r="G133" t="n">
-        <v>17.8</v>
+        <v>13.3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>15130.9504</v>
+      </c>
+      <c r="I133" t="n">
+        <v>16648.3321</v>
+      </c>
+      <c r="J133" t="n">
+        <v>29918.08110000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>146792.195</v>
+        <v>20048.6533</v>
       </c>
       <c r="C134" t="n">
-        <v>-8.5</v>
+        <v>5.1</v>
       </c>
       <c r="D134" t="n">
-        <v>538149.2034999999</v>
+        <v>394900.815</v>
       </c>
       <c r="E134" t="n">
-        <v>13.3</v>
+        <v>35.5</v>
       </c>
       <c r="F134" t="n">
-        <v>58317.0888</v>
+        <v>10093.9184</v>
       </c>
       <c r="G134" t="n">
-        <v>17.3</v>
+        <v>45.2</v>
+      </c>
+      <c r="H134" t="n">
+        <v>20048.6533</v>
+      </c>
+      <c r="I134" t="n">
+        <v>394900.815</v>
+      </c>
+      <c r="J134" t="n">
+        <v>10093.9184</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>162413.2175</v>
+        <v>39946.2726</v>
       </c>
       <c r="C135" t="n">
-        <v>-7.2</v>
+        <v>0.3</v>
       </c>
       <c r="D135" t="n">
-        <v>556657.8808</v>
+        <v>409221.4913</v>
       </c>
       <c r="E135" t="n">
-        <v>13.3</v>
+        <v>25</v>
       </c>
       <c r="F135" t="n">
-        <v>67706.00199999999</v>
+        <v>17880.3954</v>
       </c>
       <c r="G135" t="n">
-        <v>14.1</v>
+        <v>39.3</v>
+      </c>
+      <c r="H135" t="n">
+        <v>19897.61929999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>14320.67629999999</v>
+      </c>
+      <c r="J135" t="n">
+        <v>7786.477000000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>177333.6174</v>
+        <v>54467.7993</v>
       </c>
       <c r="C136" t="n">
-        <v>-7.3</v>
+        <v>-4.2</v>
       </c>
       <c r="D136" t="n">
-        <v>573417.5193</v>
+        <v>427187.373</v>
       </c>
       <c r="E136" t="n">
-        <v>13.2</v>
+        <v>21.2</v>
       </c>
       <c r="F136" t="n">
-        <v>99424.9584</v>
+        <v>22295.8667</v>
       </c>
       <c r="G136" t="n">
-        <v>7.3</v>
+        <v>30.2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>14521.5267</v>
+      </c>
+      <c r="I136" t="n">
+        <v>17965.88170000003</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4415.471299999997</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>20048.6533</v>
+        <v>72859.2988</v>
       </c>
       <c r="C137" t="n">
-        <v>5.1</v>
+        <v>-4.3</v>
       </c>
       <c r="D137" t="n">
-        <v>394900.815</v>
+        <v>451363.6977</v>
       </c>
       <c r="E137" t="n">
-        <v>35.5</v>
+        <v>19.6</v>
       </c>
       <c r="F137" t="n">
-        <v>10093.9184</v>
+        <v>27305.5161</v>
       </c>
       <c r="G137" t="n">
-        <v>45.2</v>
+        <v>26.3</v>
+      </c>
+      <c r="H137" t="n">
+        <v>18391.49950000001</v>
+      </c>
+      <c r="I137" t="n">
+        <v>24176.3247</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5009.649400000002</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>39946.2726</v>
+        <v>92379.67290000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3</v>
+        <v>-7.1</v>
       </c>
       <c r="D138" t="n">
-        <v>409221.4913</v>
+        <v>475613.7705</v>
       </c>
       <c r="E138" t="n">
-        <v>25</v>
+        <v>17.2</v>
       </c>
       <c r="F138" t="n">
-        <v>17880.3954</v>
+        <v>33258.806</v>
       </c>
       <c r="G138" t="n">
-        <v>39.3</v>
+        <v>20.7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>19520.3741</v>
+      </c>
+      <c r="I138" t="n">
+        <v>24250.07279999997</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5953.289899999996</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>54467.7993</v>
+        <v>103904.5471</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.2</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>427187.373</v>
+        <v>489216.1425</v>
       </c>
       <c r="E139" t="n">
-        <v>21.2</v>
+        <v>15.3</v>
       </c>
       <c r="F139" t="n">
-        <v>22295.8667</v>
+        <v>38607.9205</v>
       </c>
       <c r="G139" t="n">
-        <v>30.2</v>
+        <v>19</v>
+      </c>
+      <c r="H139" t="n">
+        <v>11524.87419999999</v>
+      </c>
+      <c r="I139" t="n">
+        <v>13602.37200000003</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5349.114500000003</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>72859.2988</v>
+        <v>122940.4324</v>
       </c>
       <c r="C140" t="n">
-        <v>-4.3</v>
+        <v>-6.8</v>
       </c>
       <c r="D140" t="n">
-        <v>451363.6977</v>
+        <v>511657.2932</v>
       </c>
       <c r="E140" t="n">
-        <v>19.6</v>
+        <v>15.6</v>
       </c>
       <c r="F140" t="n">
-        <v>27305.5161</v>
+        <v>44602.8723</v>
       </c>
       <c r="G140" t="n">
-        <v>26.3</v>
+        <v>20.2</v>
+      </c>
+      <c r="H140" t="n">
+        <v>19035.88530000001</v>
+      </c>
+      <c r="I140" t="n">
+        <v>22441.1507</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5994.951800000003</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>92379.67290000001</v>
+        <v>135014.433</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.1</v>
+        <v>-8.6</v>
       </c>
       <c r="D141" t="n">
-        <v>475613.7705</v>
+        <v>525376.5392</v>
       </c>
       <c r="E141" t="n">
-        <v>17.2</v>
+        <v>14</v>
       </c>
       <c r="F141" t="n">
-        <v>33258.806</v>
+        <v>50566.6207</v>
       </c>
       <c r="G141" t="n">
-        <v>20.7</v>
+        <v>16.4</v>
+      </c>
+      <c r="H141" t="n">
+        <v>12074.00059999998</v>
+      </c>
+      <c r="I141" t="n">
+        <v>13719.24599999998</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5963.748399999997</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>103904.5471</v>
+        <v>146792.195</v>
       </c>
       <c r="C142" t="n">
-        <v>-9.800000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="D142" t="n">
-        <v>489216.1425</v>
+        <v>538149.2034999999</v>
       </c>
       <c r="E142" t="n">
-        <v>15.3</v>
+        <v>13.3</v>
       </c>
       <c r="F142" t="n">
-        <v>38607.9205</v>
+        <v>58317.0888</v>
       </c>
       <c r="G142" t="n">
-        <v>19</v>
+        <v>17.3</v>
+      </c>
+      <c r="H142" t="n">
+        <v>11777.76200000002</v>
+      </c>
+      <c r="I142" t="n">
+        <v>12772.66429999995</v>
+      </c>
+      <c r="J142" t="n">
+        <v>7750.468099999998</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>122940.4324</v>
+        <v>162413.2175</v>
       </c>
       <c r="C143" t="n">
-        <v>-6.8</v>
+        <v>-7.2</v>
       </c>
       <c r="D143" t="n">
-        <v>511657.2932</v>
+        <v>556657.8808</v>
       </c>
       <c r="E143" t="n">
-        <v>15.6</v>
+        <v>13.3</v>
       </c>
       <c r="F143" t="n">
-        <v>44602.8723</v>
+        <v>67706.00199999999</v>
       </c>
       <c r="G143" t="n">
-        <v>20.2</v>
+        <v>14.1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>15621.02249999999</v>
+      </c>
+      <c r="I143" t="n">
+        <v>18508.6773000001</v>
+      </c>
+      <c r="J143" t="n">
+        <v>9388.913199999995</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>135014.433</v>
+        <v>177333.6174</v>
       </c>
       <c r="C144" t="n">
-        <v>-8.6</v>
+        <v>-7.3</v>
       </c>
       <c r="D144" t="n">
-        <v>525376.5392</v>
+        <v>573417.5193</v>
       </c>
       <c r="E144" t="n">
-        <v>14</v>
+        <v>13.2</v>
       </c>
       <c r="F144" t="n">
-        <v>50566.6207</v>
+        <v>99424.9584</v>
       </c>
       <c r="G144" t="n">
-        <v>16.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="H144" t="n">
+        <v>14920.39989999999</v>
+      </c>
+      <c r="I144" t="n">
+        <v>16759.6385</v>
+      </c>
+      <c r="J144" t="n">
+        <v>31718.95640000001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>156274.9978</v>
+        <v>23001.0182</v>
       </c>
       <c r="C145" t="n">
-        <v>6.5</v>
+        <v>14.7</v>
       </c>
       <c r="D145" t="n">
-        <v>616465.0644</v>
+        <v>455422.4329</v>
       </c>
       <c r="E145" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="F145" t="n">
-        <v>59390.1894</v>
+        <v>13524.4388</v>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>34</v>
+      </c>
+      <c r="H145" t="n">
+        <v>23001.0182</v>
+      </c>
+      <c r="I145" t="n">
+        <v>455422.4329</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13524.4388</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>181054.684</v>
+        <v>38872.9504</v>
       </c>
       <c r="C146" t="n">
-        <v>11.5</v>
+        <v>-2.7</v>
       </c>
       <c r="D146" t="n">
-        <v>646096.1141</v>
+        <v>478949.5761</v>
       </c>
       <c r="E146" t="n">
-        <v>16.1</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>69419.65489999999</v>
+        <v>19473.4052</v>
       </c>
       <c r="G146" t="n">
-        <v>2.5</v>
+        <v>8.9</v>
+      </c>
+      <c r="H146" t="n">
+        <v>15871.9322</v>
+      </c>
+      <c r="I146" t="n">
+        <v>23527.14319999999</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5948.966400000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>201207.8421</v>
+        <v>55505.8849</v>
       </c>
       <c r="C147" t="n">
-        <v>13.5</v>
+        <v>1.9</v>
       </c>
       <c r="D147" t="n">
-        <v>665571.8884000001</v>
+        <v>500617.6878</v>
       </c>
       <c r="E147" t="n">
-        <v>16.1</v>
+        <v>17.2</v>
       </c>
       <c r="F147" t="n">
-        <v>101434.992</v>
+        <v>23758.8967</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>6.6</v>
+      </c>
+      <c r="H147" t="n">
+        <v>16632.9345</v>
+      </c>
+      <c r="I147" t="n">
+        <v>21668.11170000001</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4285.4915</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>23001.0182</v>
+        <v>73613.2859</v>
       </c>
       <c r="C148" t="n">
-        <v>14.7</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>455422.4329</v>
+        <v>523430.9778</v>
       </c>
       <c r="E148" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="F148" t="n">
-        <v>13524.4388</v>
+        <v>28745.0652</v>
       </c>
       <c r="G148" t="n">
-        <v>34</v>
+        <v>5.3</v>
+      </c>
+      <c r="H148" t="n">
+        <v>18107.40100000001</v>
+      </c>
+      <c r="I148" t="n">
+        <v>22813.28999999998</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4986.1685</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>38872.9504</v>
+        <v>95901.08900000001</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D149" t="n">
-        <v>478949.5761</v>
+        <v>549408.4178000001</v>
       </c>
       <c r="E149" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="F149" t="n">
-        <v>19473.4052</v>
+        <v>35346.0669</v>
       </c>
       <c r="G149" t="n">
-        <v>8.9</v>
+        <v>6.3</v>
+      </c>
+      <c r="H149" t="n">
+        <v>22287.8031</v>
+      </c>
+      <c r="I149" t="n">
+        <v>25977.44000000006</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6601.001699999997</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>55505.8849</v>
+        <v>112637.7235</v>
       </c>
       <c r="C150" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="D150" t="n">
-        <v>500617.6878</v>
+        <v>568680.9497</v>
       </c>
       <c r="E150" t="n">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="F150" t="n">
-        <v>23758.8967</v>
+        <v>41642.713</v>
       </c>
       <c r="G150" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
+      </c>
+      <c r="H150" t="n">
+        <v>16736.63449999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>19272.53189999994</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6296.646100000005</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>73613.2859</v>
+        <v>127840.3119</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>523430.9778</v>
+        <v>585552.7889</v>
       </c>
       <c r="E151" t="n">
-        <v>16</v>
+        <v>14.4</v>
       </c>
       <c r="F151" t="n">
-        <v>28745.0652</v>
+        <v>46649.6626</v>
       </c>
       <c r="G151" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
+      </c>
+      <c r="H151" t="n">
+        <v>15202.58840000001</v>
+      </c>
+      <c r="I151" t="n">
+        <v>16871.83920000005</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5006.9496</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>95901.08900000001</v>
+        <v>144899.5572</v>
       </c>
       <c r="C152" t="n">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="D152" t="n">
-        <v>549408.4178000001</v>
+        <v>603981.6361999999</v>
       </c>
       <c r="E152" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="F152" t="n">
-        <v>35346.0669</v>
+        <v>52705.6116</v>
       </c>
       <c r="G152" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
+      </c>
+      <c r="H152" t="n">
+        <v>17059.24530000001</v>
+      </c>
+      <c r="I152" t="n">
+        <v>18428.84729999991</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6055.948999999993</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>112637.7235</v>
+        <v>156274.9978</v>
       </c>
       <c r="C153" t="n">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="D153" t="n">
-        <v>568680.9497</v>
+        <v>616465.0644</v>
       </c>
       <c r="E153" t="n">
-        <v>16.2</v>
+        <v>14.6</v>
       </c>
       <c r="F153" t="n">
-        <v>41642.713</v>
+        <v>59390.1894</v>
       </c>
       <c r="G153" t="n">
-        <v>7.9</v>
+        <v>1.8</v>
+      </c>
+      <c r="H153" t="n">
+        <v>11375.4406</v>
+      </c>
+      <c r="I153" t="n">
+        <v>12483.42820000008</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6684.577800000006</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>127840.3119</v>
+        <v>181054.684</v>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="D154" t="n">
-        <v>585552.7889</v>
+        <v>646096.1141</v>
       </c>
       <c r="E154" t="n">
-        <v>14.4</v>
+        <v>16.1</v>
       </c>
       <c r="F154" t="n">
-        <v>46649.6626</v>
+        <v>69419.65489999999</v>
       </c>
       <c r="G154" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>24779.6862</v>
+      </c>
+      <c r="I154" t="n">
+        <v>29631.04969999997</v>
+      </c>
+      <c r="J154" t="n">
+        <v>10029.46549999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>144899.5572</v>
+        <v>201207.8421</v>
       </c>
       <c r="C155" t="n">
-        <v>7.3</v>
+        <v>13.5</v>
       </c>
       <c r="D155" t="n">
-        <v>603981.6361999999</v>
+        <v>665571.8884000001</v>
       </c>
       <c r="E155" t="n">
-        <v>15</v>
+        <v>16.1</v>
       </c>
       <c r="F155" t="n">
-        <v>52705.6116</v>
+        <v>101434.992</v>
       </c>
       <c r="G155" t="n">
-        <v>4.2</v>
+        <v>2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>20153.1581</v>
+      </c>
+      <c r="I155" t="n">
+        <v>19475.77430000005</v>
+      </c>
+      <c r="J155" t="n">
+        <v>32015.3371</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>147661.0076</v>
+        <v>16693.0092</v>
       </c>
       <c r="C156" t="n">
-        <v>-5.5</v>
+        <v>-27.4</v>
       </c>
       <c r="D156" t="n">
-        <v>692132.2995</v>
+        <v>529592.9191000001</v>
       </c>
       <c r="E156" t="n">
-        <v>12.3</v>
+        <v>16.3</v>
       </c>
       <c r="F156" t="n">
-        <v>63888.877</v>
+        <v>12418.2389</v>
       </c>
       <c r="G156" t="n">
-        <v>7.6</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>16693.0092</v>
+      </c>
+      <c r="I156" t="n">
+        <v>529592.9191000001</v>
+      </c>
+      <c r="J156" t="n">
+        <v>12418.2389</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>164705.4646</v>
+        <v>29089.6613</v>
       </c>
       <c r="C157" t="n">
-        <v>-9</v>
+        <v>-25.2</v>
       </c>
       <c r="D157" t="n">
-        <v>711307.4448000001</v>
+        <v>547030.4357</v>
       </c>
       <c r="E157" t="n">
-        <v>10.1</v>
+        <v>14.2</v>
       </c>
       <c r="F157" t="n">
-        <v>75062.65820000001</v>
+        <v>18520.1746</v>
       </c>
       <c r="G157" t="n">
-        <v>8.1</v>
+        <v>-4.9</v>
+      </c>
+      <c r="H157" t="n">
+        <v>12396.6521</v>
+      </c>
+      <c r="I157" t="n">
+        <v>17437.51659999997</v>
+      </c>
+      <c r="J157" t="n">
+        <v>6101.935699999998</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>179592.4926</v>
+        <v>43234.3176</v>
       </c>
       <c r="C158" t="n">
-        <v>-10.7</v>
+        <v>-22.1</v>
       </c>
       <c r="D158" t="n">
-        <v>726482.338</v>
+        <v>564782.4873</v>
       </c>
       <c r="E158" t="n">
-        <v>9.199999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="F158" t="n">
-        <v>107459.0455</v>
+        <v>23685.4574</v>
       </c>
       <c r="G158" t="n">
-        <v>5.9</v>
+        <v>-0.3</v>
+      </c>
+      <c r="H158" t="n">
+        <v>14144.6563</v>
+      </c>
+      <c r="I158" t="n">
+        <v>17752.05160000001</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5165.282800000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>16693.0092</v>
+        <v>59912.4681</v>
       </c>
       <c r="C159" t="n">
-        <v>-27.4</v>
+        <v>-18.6</v>
       </c>
       <c r="D159" t="n">
-        <v>529592.9191000001</v>
+        <v>586080.9109</v>
       </c>
       <c r="E159" t="n">
-        <v>16.3</v>
+        <v>12</v>
       </c>
       <c r="F159" t="n">
-        <v>12418.2389</v>
+        <v>30700.4241</v>
       </c>
       <c r="G159" t="n">
-        <v>-8.199999999999999</v>
+        <v>6.8</v>
+      </c>
+      <c r="H159" t="n">
+        <v>16678.1505</v>
+      </c>
+      <c r="I159" t="n">
+        <v>21298.42359999998</v>
+      </c>
+      <c r="J159" t="n">
+        <v>7014.966700000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>29089.6613</v>
+        <v>80125.73910000001</v>
       </c>
       <c r="C160" t="n">
-        <v>-25.2</v>
+        <v>-16.4</v>
       </c>
       <c r="D160" t="n">
-        <v>547030.4357</v>
+        <v>611405.6381</v>
       </c>
       <c r="E160" t="n">
-        <v>14.2</v>
+        <v>11.3</v>
       </c>
       <c r="F160" t="n">
-        <v>18520.1746</v>
+        <v>38214.9627</v>
       </c>
       <c r="G160" t="n">
-        <v>-4.9</v>
+        <v>8.1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>20213.27100000001</v>
+      </c>
+      <c r="I160" t="n">
+        <v>25324.72719999996</v>
+      </c>
+      <c r="J160" t="n">
+        <v>7514.538599999996</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>43234.3176</v>
+        <v>98231.7657</v>
       </c>
       <c r="C161" t="n">
-        <v>-22.1</v>
+        <v>-12.8</v>
       </c>
       <c r="D161" t="n">
-        <v>564782.4873</v>
+        <v>632684.9243</v>
       </c>
       <c r="E161" t="n">
-        <v>12.8</v>
+        <v>11.3</v>
       </c>
       <c r="F161" t="n">
-        <v>23685.4574</v>
+        <v>43524.4947</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.3</v>
+        <v>4.5</v>
+      </c>
+      <c r="H161" t="n">
+        <v>18106.0266</v>
+      </c>
+      <c r="I161" t="n">
+        <v>21279.28619999997</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5309.532000000007</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>59912.4681</v>
+        <v>114381.5152</v>
       </c>
       <c r="C162" t="n">
-        <v>-18.6</v>
+        <v>-10.5</v>
       </c>
       <c r="D162" t="n">
-        <v>586080.9109</v>
+        <v>652952.5022</v>
       </c>
       <c r="E162" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F162" t="n">
-        <v>30700.4241</v>
+        <v>49758.8136</v>
       </c>
       <c r="G162" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
+      </c>
+      <c r="H162" t="n">
+        <v>16149.74949999999</v>
+      </c>
+      <c r="I162" t="n">
+        <v>20267.57790000003</v>
+      </c>
+      <c r="J162" t="n">
+        <v>6234.318899999998</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>80125.73910000001</v>
+        <v>131410.9658</v>
       </c>
       <c r="C163" t="n">
-        <v>-16.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D163" t="n">
-        <v>611405.6381</v>
+        <v>673229.9814</v>
       </c>
       <c r="E163" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F163" t="n">
-        <v>38214.9627</v>
+        <v>56503.7992</v>
       </c>
       <c r="G163" t="n">
-        <v>8.1</v>
+        <v>7.2</v>
+      </c>
+      <c r="H163" t="n">
+        <v>17029.45060000001</v>
+      </c>
+      <c r="I163" t="n">
+        <v>20277.47920000006</v>
+      </c>
+      <c r="J163" t="n">
+        <v>6744.9856</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>98231.7657</v>
+        <v>147661.0076</v>
       </c>
       <c r="C164" t="n">
-        <v>-12.8</v>
+        <v>-5.5</v>
       </c>
       <c r="D164" t="n">
-        <v>632684.9243</v>
+        <v>692132.2995</v>
       </c>
       <c r="E164" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="F164" t="n">
-        <v>43524.4947</v>
+        <v>63888.877</v>
       </c>
       <c r="G164" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
+      </c>
+      <c r="H164" t="n">
+        <v>16250.04180000001</v>
+      </c>
+      <c r="I164" t="n">
+        <v>18902.31809999992</v>
+      </c>
+      <c r="J164" t="n">
+        <v>7385.077799999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>114381.5152</v>
+        <v>164705.4646</v>
       </c>
       <c r="C165" t="n">
-        <v>-10.5</v>
+        <v>-9</v>
       </c>
       <c r="D165" t="n">
-        <v>652952.5022</v>
+        <v>711307.4448000001</v>
       </c>
       <c r="E165" t="n">
-        <v>11.5</v>
+        <v>10.1</v>
       </c>
       <c r="F165" t="n">
-        <v>49758.8136</v>
+        <v>75062.65820000001</v>
       </c>
       <c r="G165" t="n">
-        <v>6.7</v>
+        <v>8.1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>17044.45699999999</v>
+      </c>
+      <c r="I165" t="n">
+        <v>19175.14530000009</v>
+      </c>
+      <c r="J165" t="n">
+        <v>11173.7812</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>131410.9658</v>
+        <v>179592.4926</v>
       </c>
       <c r="C166" t="n">
-        <v>-9.300000000000001</v>
+        <v>-10.7</v>
       </c>
       <c r="D166" t="n">
-        <v>673229.9814</v>
+        <v>726482.338</v>
       </c>
       <c r="E166" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>56503.7992</v>
+        <v>107459.0455</v>
       </c>
       <c r="G166" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
+      </c>
+      <c r="H166" t="n">
+        <v>14887.02799999999</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15174.89319999993</v>
+      </c>
+      <c r="J166" t="n">
+        <v>32396.38729999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>127085.8475</v>
+        <v>13743.5226</v>
       </c>
       <c r="C167" t="n">
-        <v>-13.9</v>
+        <v>-17.7</v>
       </c>
       <c r="D167" t="n">
-        <v>707805.0619</v>
+        <v>570096.7821</v>
       </c>
       <c r="E167" t="n">
-        <v>2.3</v>
+        <v>7.6</v>
       </c>
       <c r="F167" t="n">
-        <v>61200.6356</v>
+        <v>10814.5391</v>
       </c>
       <c r="G167" t="n">
-        <v>-4.2</v>
+        <v>-12.9</v>
+      </c>
+      <c r="H167" t="n">
+        <v>13743.5226</v>
+      </c>
+      <c r="I167" t="n">
+        <v>570096.7821</v>
+      </c>
+      <c r="J167" t="n">
+        <v>10814.5391</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>140568.6552</v>
+        <v>23723.6211</v>
       </c>
       <c r="C168" t="n">
-        <v>-14.7</v>
+        <v>-18.4</v>
       </c>
       <c r="D168" t="n">
-        <v>723989.9151</v>
+        <v>584018.3757</v>
       </c>
       <c r="E168" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="F168" t="n">
-        <v>72412.8939</v>
+        <v>16993.6495</v>
       </c>
       <c r="G168" t="n">
-        <v>-3.5</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>9980.0985</v>
+      </c>
+      <c r="I168" t="n">
+        <v>13921.59360000002</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6179.1104</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>154453.6757</v>
+        <v>35756.0867</v>
       </c>
       <c r="C169" t="n">
-        <v>-14</v>
+        <v>-17.3</v>
       </c>
       <c r="D169" t="n">
-        <v>735693.3687</v>
+        <v>599580.424</v>
       </c>
       <c r="E169" t="n">
-        <v>1.3</v>
+        <v>6.2</v>
       </c>
       <c r="F169" t="n">
-        <v>100039.1003</v>
+        <v>21209.9366</v>
       </c>
       <c r="G169" t="n">
-        <v>-6.9</v>
+        <v>-10.5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>12032.4656</v>
+      </c>
+      <c r="I169" t="n">
+        <v>15562.04830000002</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4216.287100000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>13743.5226</v>
+        <v>50304.7543</v>
       </c>
       <c r="C170" t="n">
-        <v>-17.7</v>
+        <v>-16</v>
       </c>
       <c r="D170" t="n">
-        <v>570096.7821</v>
+        <v>616903.0564999999</v>
       </c>
       <c r="E170" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="F170" t="n">
-        <v>10814.5391</v>
+        <v>26611.4156</v>
       </c>
       <c r="G170" t="n">
-        <v>-12.9</v>
+        <v>-13.3</v>
+      </c>
+      <c r="H170" t="n">
+        <v>14548.6676</v>
+      </c>
+      <c r="I170" t="n">
+        <v>17322.63249999995</v>
+      </c>
+      <c r="J170" t="n">
+        <v>5401.478999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>23723.6211</v>
+        <v>67478.7752</v>
       </c>
       <c r="C171" t="n">
-        <v>-18.4</v>
+        <v>-15.8</v>
       </c>
       <c r="D171" t="n">
-        <v>584018.3757</v>
+        <v>637563.0019</v>
       </c>
       <c r="E171" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="F171" t="n">
-        <v>16993.6495</v>
+        <v>32941.2501</v>
       </c>
       <c r="G171" t="n">
-        <v>-8.199999999999999</v>
+        <v>-13.8</v>
+      </c>
+      <c r="H171" t="n">
+        <v>17174.0209</v>
+      </c>
+      <c r="I171" t="n">
+        <v>20659.94540000008</v>
+      </c>
+      <c r="J171" t="n">
+        <v>6329.834499999997</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>35756.0867</v>
+        <v>81730.656</v>
       </c>
       <c r="C172" t="n">
-        <v>-17.3</v>
+        <v>-16.8</v>
       </c>
       <c r="D172" t="n">
-        <v>599580.424</v>
+        <v>654172.4824</v>
       </c>
       <c r="E172" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="F172" t="n">
-        <v>21209.9366</v>
+        <v>37833.3662</v>
       </c>
       <c r="G172" t="n">
-        <v>-10.5</v>
+        <v>-13.1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>14251.8808</v>
+      </c>
+      <c r="I172" t="n">
+        <v>16609.48049999995</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4892.116099999999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>50304.7543</v>
+        <v>95181.8469</v>
       </c>
       <c r="C173" t="n">
-        <v>-16</v>
+        <v>-16.8</v>
       </c>
       <c r="D173" t="n">
-        <v>616903.0564999999</v>
+        <v>669359.6887000001</v>
       </c>
       <c r="E173" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="F173" t="n">
-        <v>26611.4156</v>
+        <v>42475.1689</v>
       </c>
       <c r="G173" t="n">
-        <v>-13.3</v>
+        <v>-14.6</v>
+      </c>
+      <c r="H173" t="n">
+        <v>13451.1909</v>
+      </c>
+      <c r="I173" t="n">
+        <v>15187.20630000008</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4641.8027</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>67478.7752</v>
+        <v>114814</v>
       </c>
       <c r="C174" t="n">
-        <v>-15.8</v>
+        <v>-12.6</v>
       </c>
       <c r="D174" t="n">
-        <v>637563.0019</v>
+        <v>693652.0634</v>
       </c>
       <c r="E174" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>32941.2501</v>
+        <v>50967.0387</v>
       </c>
       <c r="G174" t="n">
-        <v>-13.8</v>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>19632.1531</v>
+      </c>
+      <c r="I174" t="n">
+        <v>24292.37469999993</v>
+      </c>
+      <c r="J174" t="n">
+        <v>8491.8698</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>81730.656</v>
+        <v>127085.8475</v>
       </c>
       <c r="C175" t="n">
-        <v>-16.8</v>
+        <v>-13.9</v>
       </c>
       <c r="D175" t="n">
-        <v>654172.4824</v>
+        <v>707805.0619</v>
       </c>
       <c r="E175" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="F175" t="n">
-        <v>37833.3662</v>
+        <v>61200.6356</v>
       </c>
       <c r="G175" t="n">
-        <v>-13.1</v>
+        <v>-4.2</v>
+      </c>
+      <c r="H175" t="n">
+        <v>12271.8475</v>
+      </c>
+      <c r="I175" t="n">
+        <v>14152.99849999999</v>
+      </c>
+      <c r="J175" t="n">
+        <v>10233.5969</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>95181.8469</v>
+        <v>140568.6552</v>
       </c>
       <c r="C176" t="n">
-        <v>-16.8</v>
+        <v>-14.7</v>
       </c>
       <c r="D176" t="n">
-        <v>669359.6887000001</v>
+        <v>723989.9151</v>
       </c>
       <c r="E176" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="F176" t="n">
-        <v>42475.1689</v>
+        <v>72412.8939</v>
       </c>
       <c r="G176" t="n">
-        <v>-14.6</v>
+        <v>-3.5</v>
+      </c>
+      <c r="H176" t="n">
+        <v>13482.8077</v>
+      </c>
+      <c r="I176" t="n">
+        <v>16184.85320000001</v>
+      </c>
+      <c r="J176" t="n">
+        <v>11212.25829999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>114814</v>
+        <v>154453.6757</v>
       </c>
       <c r="C177" t="n">
-        <v>-12.6</v>
+        <v>-14</v>
       </c>
       <c r="D177" t="n">
-        <v>693652.0634</v>
+        <v>735693.3687</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="F177" t="n">
-        <v>50967.0387</v>
+        <v>100039.1003</v>
       </c>
       <c r="G177" t="n">
-        <v>-9.800000000000001</v>
+        <v>-6.9</v>
+      </c>
+      <c r="H177" t="n">
+        <v>13885.02049999998</v>
+      </c>
+      <c r="I177" t="n">
+        <v>11703.45360000001</v>
+      </c>
+      <c r="J177" t="n">
+        <v>27626.20640000001</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>137375.4045</v>
+        <v>15620.2106</v>
       </c>
       <c r="C178" t="n">
-        <v>8.1</v>
+        <v>13.7</v>
       </c>
       <c r="D178" t="n">
-        <v>730980.8133</v>
+        <v>603543.7185</v>
       </c>
       <c r="E178" t="n">
-        <v>3.3</v>
+        <v>5.9</v>
       </c>
       <c r="F178" t="n">
-        <v>65211.1564</v>
+        <v>13941.8395</v>
       </c>
       <c r="G178" t="n">
-        <v>6.6</v>
+        <v>28.9</v>
+      </c>
+      <c r="H178" t="n">
+        <v>15620.2106</v>
+      </c>
+      <c r="I178" t="n">
+        <v>603543.7185</v>
+      </c>
+      <c r="J178" t="n">
+        <v>13941.8395</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>151303.4818</v>
+        <v>28281.4211</v>
       </c>
       <c r="C179" t="n">
-        <v>7.6</v>
+        <v>19.2</v>
       </c>
       <c r="D179" t="n">
-        <v>745121.758</v>
+        <v>617975.2073</v>
       </c>
       <c r="E179" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="F179" t="n">
-        <v>77036.60430000001</v>
+        <v>20000.8186</v>
       </c>
       <c r="G179" t="n">
-        <v>6.4</v>
+        <v>17.7</v>
+      </c>
+      <c r="H179" t="n">
+        <v>12661.2105</v>
+      </c>
+      <c r="I179" t="n">
+        <v>14431.48880000005</v>
+      </c>
+      <c r="J179" t="n">
+        <v>6058.979099999999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>166928</v>
+        <v>43425.4327</v>
       </c>
       <c r="C180" t="n">
-        <v>8.1</v>
+        <v>21.4</v>
       </c>
       <c r="D180" t="n">
-        <v>758975</v>
+        <v>634261.0659</v>
       </c>
       <c r="E180" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="F180" t="n">
-        <v>106128</v>
+        <v>25478.2232</v>
       </c>
       <c r="G180" t="n">
-        <v>6.1</v>
+        <v>20.1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>15144.0116</v>
+      </c>
+      <c r="I180" t="n">
+        <v>16285.85860000004</v>
+      </c>
+      <c r="J180" t="n">
+        <v>5477.404600000002</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>15620.2106</v>
+        <v>59521.6077</v>
       </c>
       <c r="C181" t="n">
-        <v>13.7</v>
+        <v>18.3</v>
       </c>
       <c r="D181" t="n">
-        <v>603543.7185</v>
+        <v>651338.1112</v>
       </c>
       <c r="E181" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F181" t="n">
-        <v>13941.8395</v>
+        <v>32027.6971</v>
       </c>
       <c r="G181" t="n">
-        <v>28.9</v>
+        <v>20.4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>16096.175</v>
+      </c>
+      <c r="I181" t="n">
+        <v>17077.0453</v>
+      </c>
+      <c r="J181" t="n">
+        <v>6549.473900000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>28281.4211</v>
+        <v>77536.9261</v>
       </c>
       <c r="C182" t="n">
-        <v>19.2</v>
+        <v>14.9</v>
       </c>
       <c r="D182" t="n">
-        <v>617975.2073</v>
+        <v>669750.4922</v>
       </c>
       <c r="E182" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="F182" t="n">
-        <v>20000.8186</v>
+        <v>39545.9559</v>
       </c>
       <c r="G182" t="n">
-        <v>17.7</v>
+        <v>20</v>
+      </c>
+      <c r="H182" t="n">
+        <v>18015.3184</v>
+      </c>
+      <c r="I182" t="n">
+        <v>18412.38099999994</v>
+      </c>
+      <c r="J182" t="n">
+        <v>7518.2588</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>43425.4327</v>
+        <v>92944.18060000001</v>
       </c>
       <c r="C183" t="n">
-        <v>21.4</v>
+        <v>13.7</v>
       </c>
       <c r="D183" t="n">
-        <v>634261.0659</v>
+        <v>685605.6756</v>
       </c>
       <c r="E183" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="F183" t="n">
-        <v>25478.2232</v>
+        <v>45903.7832</v>
       </c>
       <c r="G183" t="n">
-        <v>20.1</v>
+        <v>21.3</v>
+      </c>
+      <c r="H183" t="n">
+        <v>15407.25450000001</v>
+      </c>
+      <c r="I183" t="n">
+        <v>15855.18339999998</v>
+      </c>
+      <c r="J183" t="n">
+        <v>6357.827299999997</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>59521.6077</v>
+        <v>106833.5923</v>
       </c>
       <c r="C184" t="n">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="D184" t="n">
-        <v>651338.1112</v>
+        <v>700120.9754</v>
       </c>
       <c r="E184" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="F184" t="n">
-        <v>32027.6971</v>
+        <v>50592.3005</v>
       </c>
       <c r="G184" t="n">
-        <v>20.4</v>
+        <v>19.1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>13889.4117</v>
+      </c>
+      <c r="I184" t="n">
+        <v>14515.29980000004</v>
+      </c>
+      <c r="J184" t="n">
+        <v>4688.5173</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>77536.9261</v>
+        <v>122655.3229</v>
       </c>
       <c r="C185" t="n">
-        <v>14.9</v>
+        <v>6.8</v>
       </c>
       <c r="D185" t="n">
-        <v>669750.4922</v>
+        <v>716028.883999999</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="F185" t="n">
-        <v>39545.9559</v>
+        <v>57111.8073</v>
       </c>
       <c r="G185" t="n">
-        <v>20</v>
+        <v>12.1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>15821.7306</v>
+      </c>
+      <c r="I185" t="n">
+        <v>15907.90859999903</v>
+      </c>
+      <c r="J185" t="n">
+        <v>6519.506800000003</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>92944.18060000001</v>
+        <v>137375.4045</v>
       </c>
       <c r="C186" t="n">
-        <v>13.7</v>
+        <v>8.1</v>
       </c>
       <c r="D186" t="n">
-        <v>685605.6756</v>
+        <v>730980.8133</v>
       </c>
       <c r="E186" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="F186" t="n">
-        <v>45903.7832</v>
+        <v>65211.1564</v>
       </c>
       <c r="G186" t="n">
-        <v>21.3</v>
+        <v>6.6</v>
+      </c>
+      <c r="H186" t="n">
+        <v>14720.0816</v>
+      </c>
+      <c r="I186" t="n">
+        <v>14951.92930000101</v>
+      </c>
+      <c r="J186" t="n">
+        <v>8099.349099999999</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>106833.5923</v>
+        <v>151303.4818</v>
       </c>
       <c r="C187" t="n">
-        <v>12.2</v>
+        <v>7.6</v>
       </c>
       <c r="D187" t="n">
-        <v>700120.9754</v>
+        <v>745121.758</v>
       </c>
       <c r="E187" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="F187" t="n">
-        <v>50592.3005</v>
+        <v>77036.60430000001</v>
       </c>
       <c r="G187" t="n">
-        <v>19.1</v>
+        <v>6.4</v>
+      </c>
+      <c r="H187" t="n">
+        <v>13928.0773</v>
+      </c>
+      <c r="I187" t="n">
+        <v>14140.94469999999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>11825.44790000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>122655.3229</v>
+        <v>166928</v>
       </c>
       <c r="C188" t="n">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="D188" t="n">
-        <v>716028.883999999</v>
+        <v>758975</v>
       </c>
       <c r="E188" t="n">
         <v>3.2</v>
       </c>
       <c r="F188" t="n">
-        <v>57111.8073</v>
+        <v>106128</v>
       </c>
       <c r="G188" t="n">
-        <v>12.1</v>
+        <v>6.1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>15624.51819999999</v>
+      </c>
+      <c r="I188" t="n">
+        <v>13853.24199999997</v>
+      </c>
+      <c r="J188" t="n">
+        <v>29091.39569999999</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>145127.0709</v>
+        <v>17238.3869</v>
       </c>
       <c r="C189" t="n">
-        <v>5.6</v>
+        <v>10.4</v>
       </c>
       <c r="D189" t="n">
-        <v>752333.6851999999</v>
+        <v>622950.2921</v>
       </c>
       <c r="E189" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="F189" t="n">
-        <v>65612.27860000001</v>
+        <v>16140.7728</v>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>15.8</v>
+      </c>
+      <c r="H189" t="n">
+        <v>17238.3869</v>
+      </c>
+      <c r="I189" t="n">
+        <v>622950.2921</v>
+      </c>
+      <c r="J189" t="n">
+        <v>16140.7728</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>161678.6451</v>
+        <v>31559.6961</v>
       </c>
       <c r="C190" t="n">
-        <v>6.9</v>
+        <v>11.6</v>
       </c>
       <c r="D190" t="n">
-        <v>768442.6858</v>
+        <v>636977.0139</v>
       </c>
       <c r="E190" t="n">
         <v>3.1</v>
       </c>
       <c r="F190" t="n">
-        <v>76245.0113</v>
+        <v>23030.7332</v>
       </c>
       <c r="G190" t="n">
-        <v>-1</v>
+        <v>15.1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>14321.3092</v>
+      </c>
+      <c r="I190" t="n">
+        <v>14026.72180000006</v>
+      </c>
+      <c r="J190" t="n">
+        <v>6889.960399999998</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>178653.7704</v>
+        <v>48239.9237</v>
       </c>
       <c r="C191" t="n">
-        <v>7</v>
+        <v>11.1</v>
       </c>
       <c r="D191" t="n">
-        <v>781483.726</v>
+        <v>654053.5708</v>
       </c>
       <c r="E191" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="F191" t="n">
-        <v>101486.4099</v>
+        <v>28173.5849</v>
       </c>
       <c r="G191" t="n">
-        <v>-4.4</v>
+        <v>10.6</v>
+      </c>
+      <c r="H191" t="n">
+        <v>16680.2276</v>
+      </c>
+      <c r="I191" t="n">
+        <v>17076.55689999997</v>
+      </c>
+      <c r="J191" t="n">
+        <v>5142.851700000003</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>17238.3869</v>
+        <v>65178.7326</v>
       </c>
       <c r="C192" t="n">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="D192" t="n">
-        <v>622950.2921</v>
+        <v>671438.2293</v>
       </c>
       <c r="E192" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F192" t="n">
-        <v>16140.7728</v>
+        <v>33911.0603</v>
       </c>
       <c r="G192" t="n">
-        <v>15.8</v>
+        <v>5.9</v>
+      </c>
+      <c r="H192" t="n">
+        <v>16938.8089</v>
+      </c>
+      <c r="I192" t="n">
+        <v>17384.65850000002</v>
+      </c>
+      <c r="J192" t="n">
+        <v>5737.475399999996</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>31559.6961</v>
+        <v>85719.61199999999</v>
       </c>
       <c r="C193" t="n">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="D193" t="n">
-        <v>636977.0139</v>
+        <v>692325.9431</v>
       </c>
       <c r="E193" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="F193" t="n">
-        <v>23030.7332</v>
+        <v>41524.0132</v>
       </c>
       <c r="G193" t="n">
-        <v>15.1</v>
+        <v>5</v>
+      </c>
+      <c r="H193" t="n">
+        <v>20540.87939999999</v>
+      </c>
+      <c r="I193" t="n">
+        <v>20887.71380000003</v>
+      </c>
+      <c r="J193" t="n">
+        <v>7612.952900000004</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>48239.9237</v>
+        <v>100370.8039</v>
       </c>
       <c r="C194" t="n">
-        <v>11.1</v>
+        <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>654053.5708</v>
+        <v>707312.8054</v>
       </c>
       <c r="E194" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F194" t="n">
-        <v>28173.5849</v>
+        <v>47020.6039</v>
       </c>
       <c r="G194" t="n">
-        <v>10.6</v>
+        <v>2.4</v>
+      </c>
+      <c r="H194" t="n">
+        <v>14651.19190000001</v>
+      </c>
+      <c r="I194" t="n">
+        <v>14986.86229999992</v>
+      </c>
+      <c r="J194" t="n">
+        <v>5496.590700000001</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>65178.7326</v>
+        <v>114996.1956</v>
       </c>
       <c r="C195" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="D195" t="n">
-        <v>671438.2293</v>
+        <v>721780.6027</v>
       </c>
       <c r="E195" t="n">
         <v>3.1</v>
       </c>
       <c r="F195" t="n">
-        <v>33911.0603</v>
+        <v>52296.2999</v>
       </c>
       <c r="G195" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
+      </c>
+      <c r="H195" t="n">
+        <v>14625.39170000001</v>
+      </c>
+      <c r="I195" t="n">
+        <v>14467.79730000009</v>
+      </c>
+      <c r="J195" t="n">
+        <v>5275.695999999996</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>85719.61199999999</v>
+        <v>131032.743</v>
       </c>
       <c r="C196" t="n">
-        <v>10.6</v>
+        <v>6.8</v>
       </c>
       <c r="D196" t="n">
-        <v>692325.9431</v>
+        <v>738064.5254</v>
       </c>
       <c r="E196" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="F196" t="n">
-        <v>41524.0132</v>
+        <v>57693.8316</v>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>16036.5474</v>
+      </c>
+      <c r="I196" t="n">
+        <v>16283.9227</v>
+      </c>
+      <c r="J196" t="n">
+        <v>5397.5317</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>100370.8039</v>
+        <v>145127.0709</v>
       </c>
       <c r="C197" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="D197" t="n">
-        <v>707312.8054</v>
+        <v>752333.6851999999</v>
       </c>
       <c r="E197" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="F197" t="n">
-        <v>47020.6039</v>
+        <v>65612.27860000001</v>
       </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
+      </c>
+      <c r="H197" t="n">
+        <v>14094.32789999999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>14269.15979999991</v>
+      </c>
+      <c r="J197" t="n">
+        <v>7918.447000000007</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>114996.1956</v>
+        <v>161678.6451</v>
       </c>
       <c r="C198" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="D198" t="n">
-        <v>721780.6027</v>
+        <v>768442.6858</v>
       </c>
       <c r="E198" t="n">
         <v>3.1</v>
       </c>
       <c r="F198" t="n">
-        <v>52296.2999</v>
+        <v>76245.0113</v>
       </c>
       <c r="G198" t="n">
-        <v>3.4</v>
+        <v>-1</v>
+      </c>
+      <c r="H198" t="n">
+        <v>16551.5742</v>
+      </c>
+      <c r="I198" t="n">
+        <v>16109.00060000003</v>
+      </c>
+      <c r="J198" t="n">
+        <v>10632.73269999999</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>131032.743</v>
+        <v>178653.7704</v>
       </c>
       <c r="C199" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D199" t="n">
-        <v>738064.5254</v>
+        <v>781483.726</v>
       </c>
       <c r="E199" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="F199" t="n">
-        <v>57693.8316</v>
+        <v>101486.4099</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>-4.4</v>
+      </c>
+      <c r="H199" t="n">
+        <v>16975.12530000001</v>
+      </c>
+      <c r="I199" t="n">
+        <v>13041.04020000005</v>
+      </c>
+      <c r="J199" t="n">
+        <v>25241.3986</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>168754.0467</v>
+        <v>17746.2857</v>
       </c>
       <c r="C200" t="n">
-        <v>16.3</v>
+        <v>2.9</v>
       </c>
       <c r="D200" t="n">
-        <v>784424.6523</v>
+        <v>632001.5634</v>
       </c>
       <c r="E200" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="F200" t="n">
-        <v>57391.8068</v>
+        <v>14184.365</v>
       </c>
       <c r="G200" t="n">
-        <v>-12.5</v>
+        <v>-12.1</v>
+      </c>
+      <c r="H200" t="n">
+        <v>17746.2857</v>
+      </c>
+      <c r="I200" t="n">
+        <v>632001.5634</v>
+      </c>
+      <c r="J200" t="n">
+        <v>14184.365</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>188894.5327</v>
+        <v>34614.9647</v>
       </c>
       <c r="C201" t="n">
-        <v>16.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D201" t="n">
-        <v>804886.0122999999</v>
+        <v>646555.5257999999</v>
       </c>
       <c r="E201" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="F201" t="n">
-        <v>66855.73540000001</v>
+        <v>20708.9354</v>
       </c>
       <c r="G201" t="n">
-        <v>-12.3</v>
+        <v>-10.1</v>
+      </c>
+      <c r="H201" t="n">
+        <v>16868.679</v>
+      </c>
+      <c r="I201" t="n">
+        <v>14553.96239999996</v>
+      </c>
+      <c r="J201" t="n">
+        <v>6524.570399999999</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>209341.7939</v>
+        <v>51779.0267</v>
       </c>
       <c r="C202" t="n">
-        <v>17.2</v>
+        <v>7.3</v>
       </c>
       <c r="D202" t="n">
-        <v>822300.2399</v>
+        <v>664409.8214</v>
       </c>
       <c r="E202" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="F202" t="n">
-        <v>93550.1122</v>
+        <v>25150.7349</v>
       </c>
       <c r="G202" t="n">
-        <v>-7.8</v>
+        <v>-10.7</v>
+      </c>
+      <c r="H202" t="n">
+        <v>17164.06200000001</v>
+      </c>
+      <c r="I202" t="n">
+        <v>17854.29560000007</v>
+      </c>
+      <c r="J202" t="n">
+        <v>4441.799500000001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>17746.2857</v>
+        <v>72190.33990000001</v>
       </c>
       <c r="C203" t="n">
-        <v>2.9</v>
+        <v>10.8</v>
       </c>
       <c r="D203" t="n">
-        <v>632001.5634</v>
+        <v>684991.1154</v>
       </c>
       <c r="E203" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F203" t="n">
-        <v>14184.365</v>
+        <v>30483.7781</v>
       </c>
       <c r="G203" t="n">
-        <v>-12.1</v>
+        <v>-10.1</v>
+      </c>
+      <c r="H203" t="n">
+        <v>20411.3132</v>
+      </c>
+      <c r="I203" t="n">
+        <v>20581.29399999999</v>
+      </c>
+      <c r="J203" t="n">
+        <v>5333.0432</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>34614.9647</v>
+        <v>95816.59970000001</v>
       </c>
       <c r="C204" t="n">
-        <v>9.699999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="D204" t="n">
-        <v>646555.5257999999</v>
+        <v>709649.4162</v>
       </c>
       <c r="E204" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F204" t="n">
-        <v>20708.9354</v>
+        <v>37130.8508</v>
       </c>
       <c r="G204" t="n">
-        <v>-10.1</v>
+        <v>-10.6</v>
+      </c>
+      <c r="H204" t="n">
+        <v>23626.2598</v>
+      </c>
+      <c r="I204" t="n">
+        <v>24658.30079999997</v>
+      </c>
+      <c r="J204" t="n">
+        <v>6647.072700000001</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>51779.0267</v>
+        <v>114780.621</v>
       </c>
       <c r="C205" t="n">
-        <v>7.3</v>
+        <v>14.4</v>
       </c>
       <c r="D205" t="n">
-        <v>664409.8214</v>
+        <v>728593.3314</v>
       </c>
       <c r="E205" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="F205" t="n">
-        <v>25150.7349</v>
+        <v>42066.6849</v>
       </c>
       <c r="G205" t="n">
-        <v>-10.7</v>
+        <v>-10.5</v>
+      </c>
+      <c r="H205" t="n">
+        <v>18964.02129999999</v>
+      </c>
+      <c r="I205" t="n">
+        <v>18943.91520000005</v>
+      </c>
+      <c r="J205" t="n">
+        <v>4935.8341</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>72190.33990000001</v>
+        <v>133293.1527</v>
       </c>
       <c r="C206" t="n">
-        <v>10.8</v>
+        <v>15.9</v>
       </c>
       <c r="D206" t="n">
-        <v>684991.1154</v>
+        <v>747658.4776</v>
       </c>
       <c r="E206" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="F206" t="n">
-        <v>30483.7781</v>
+        <v>46229.9387</v>
       </c>
       <c r="G206" t="n">
-        <v>-10.1</v>
+        <v>-11.6</v>
+      </c>
+      <c r="H206" t="n">
+        <v>18512.53170000001</v>
+      </c>
+      <c r="I206" t="n">
+        <v>19065.14619999996</v>
+      </c>
+      <c r="J206" t="n">
+        <v>4163.253799999999</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>95816.59970000001</v>
+        <v>152582.7223</v>
       </c>
       <c r="C207" t="n">
-        <v>11.8</v>
+        <v>16.4</v>
       </c>
       <c r="D207" t="n">
-        <v>709649.4162</v>
+        <v>767217.9460999999</v>
       </c>
       <c r="E207" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="F207" t="n">
-        <v>37130.8508</v>
+        <v>51132.0956</v>
       </c>
       <c r="G207" t="n">
-        <v>-10.6</v>
+        <v>-11.4</v>
+      </c>
+      <c r="H207" t="n">
+        <v>19289.56959999999</v>
+      </c>
+      <c r="I207" t="n">
+        <v>19559.46849999996</v>
+      </c>
+      <c r="J207" t="n">
+        <v>4902.156900000002</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>114780.621</v>
+        <v>168754.0467</v>
       </c>
       <c r="C208" t="n">
-        <v>14.4</v>
+        <v>16.3</v>
       </c>
       <c r="D208" t="n">
-        <v>728593.3314</v>
+        <v>784424.6523</v>
       </c>
       <c r="E208" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="F208" t="n">
-        <v>42066.6849</v>
+        <v>57391.8068</v>
       </c>
       <c r="G208" t="n">
-        <v>-10.5</v>
+        <v>-12.5</v>
+      </c>
+      <c r="H208" t="n">
+        <v>16171.32440000001</v>
+      </c>
+      <c r="I208" t="n">
+        <v>17206.70620000002</v>
+      </c>
+      <c r="J208" t="n">
+        <v>6259.711199999998</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>133293.1527</v>
+        <v>188894.5327</v>
       </c>
       <c r="C209" t="n">
-        <v>15.9</v>
+        <v>16.8</v>
       </c>
       <c r="D209" t="n">
-        <v>747658.4776</v>
+        <v>804886.0122999999</v>
       </c>
       <c r="E209" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="F209" t="n">
-        <v>46229.9387</v>
+        <v>66855.73540000001</v>
       </c>
       <c r="G209" t="n">
-        <v>-11.6</v>
+        <v>-12.3</v>
+      </c>
+      <c r="H209" t="n">
+        <v>20140.486</v>
+      </c>
+      <c r="I209" t="n">
+        <v>20461.35999999999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>9463.928600000007</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>152582.7223</v>
+        <v>209341.7939</v>
       </c>
       <c r="C210" t="n">
-        <v>16.4</v>
+        <v>17.2</v>
       </c>
       <c r="D210" t="n">
-        <v>767217.9460999999</v>
+        <v>822300.2399</v>
       </c>
       <c r="E210" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="F210" t="n">
-        <v>51132.0956</v>
+        <v>93550.1122</v>
       </c>
       <c r="G210" t="n">
-        <v>-11.4</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H210" t="n">
+        <v>20447.26119999998</v>
+      </c>
+      <c r="I210" t="n">
+        <v>17414.2276000001</v>
+      </c>
+      <c r="J210" t="n">
+        <v>26694.3768</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>185634.4244</v>
+        <v>18813.78</v>
       </c>
       <c r="C211" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>854881.7971</v>
+        <v>674945.9407</v>
       </c>
       <c r="E211" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="F211" t="n">
-        <v>54211.1425</v>
+        <v>12499.7574</v>
       </c>
       <c r="G211" t="n">
-        <v>-5.5</v>
+        <v>-11.9</v>
+      </c>
+      <c r="H211" t="n">
+        <v>18813.78</v>
+      </c>
+      <c r="I211" t="n">
+        <v>674945.9407</v>
+      </c>
+      <c r="J211" t="n">
+        <v>12499.7574</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>205194.4325</v>
+        <v>38728.4306</v>
       </c>
       <c r="C212" t="n">
-        <v>8.6</v>
+        <v>11.9</v>
       </c>
       <c r="D212" t="n">
-        <v>874813.9267</v>
+        <v>699444.2225</v>
       </c>
       <c r="E212" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>63846.4856</v>
+        <v>18474.0948</v>
       </c>
       <c r="G212" t="n">
-        <v>-4.5</v>
+        <v>-10.8</v>
+      </c>
+      <c r="H212" t="n">
+        <v>19914.6506</v>
+      </c>
+      <c r="I212" t="n">
+        <v>24498.2818</v>
+      </c>
+      <c r="J212" t="n">
+        <v>5974.337399999999</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>227153.5829</v>
+        <v>58552.3435</v>
       </c>
       <c r="C213" t="n">
-        <v>8.5</v>
+        <v>13.1</v>
       </c>
       <c r="D213" t="n">
-        <v>893820.8892</v>
+        <v>722569.2319</v>
       </c>
       <c r="E213" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F213" t="n">
-        <v>95941.5331</v>
+        <v>22563.9283</v>
       </c>
       <c r="G213" t="n">
-        <v>2.6</v>
+        <v>-10.3</v>
+      </c>
+      <c r="H213" t="n">
+        <v>19823.9129</v>
+      </c>
+      <c r="I213" t="n">
+        <v>23125.00939999998</v>
+      </c>
+      <c r="J213" t="n">
+        <v>4089.833500000001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>18813.78</v>
+        <v>79783.5337</v>
       </c>
       <c r="C214" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="D214" t="n">
-        <v>674945.9407</v>
+        <v>745285.6705</v>
       </c>
       <c r="E214" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F214" t="n">
-        <v>12499.7574</v>
+        <v>26706.9025</v>
       </c>
       <c r="G214" t="n">
-        <v>-11.9</v>
+        <v>-12.4</v>
+      </c>
+      <c r="H214" t="n">
+        <v>21231.1902</v>
+      </c>
+      <c r="I214" t="n">
+        <v>22716.43859999999</v>
+      </c>
+      <c r="J214" t="n">
+        <v>4142.974200000001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>38728.4306</v>
+        <v>105508.5983</v>
       </c>
       <c r="C215" t="n">
-        <v>11.9</v>
+        <v>10.1</v>
       </c>
       <c r="D215" t="n">
-        <v>699444.2225</v>
+        <v>772292.4184</v>
       </c>
       <c r="E215" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F215" t="n">
-        <v>18474.0948</v>
+        <v>32425.7697</v>
       </c>
       <c r="G215" t="n">
-        <v>-10.8</v>
+        <v>-12.7</v>
+      </c>
+      <c r="H215" t="n">
+        <v>25725.0646</v>
+      </c>
+      <c r="I215" t="n">
+        <v>27006.74789999996</v>
+      </c>
+      <c r="J215" t="n">
+        <v>5718.867200000001</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>58552.3435</v>
+        <v>125715.8784</v>
       </c>
       <c r="C216" t="n">
-        <v>13.1</v>
+        <v>9.5</v>
       </c>
       <c r="D216" t="n">
-        <v>722569.2319</v>
+        <v>794207.4763</v>
       </c>
       <c r="E216" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>22563.9283</v>
+        <v>37330.7549</v>
       </c>
       <c r="G216" t="n">
-        <v>-10.3</v>
+        <v>-11.3</v>
+      </c>
+      <c r="H216" t="n">
+        <v>20207.2801</v>
+      </c>
+      <c r="I216" t="n">
+        <v>21915.05790000001</v>
+      </c>
+      <c r="J216" t="n">
+        <v>4904.985199999999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>79783.5337</v>
+        <v>145133.0673</v>
       </c>
       <c r="C217" t="n">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="D217" t="n">
-        <v>745285.6705</v>
+        <v>813156.4898</v>
       </c>
       <c r="E217" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="F217" t="n">
-        <v>26706.9025</v>
+        <v>41610.2736</v>
       </c>
       <c r="G217" t="n">
-        <v>-12.4</v>
+        <v>-10</v>
+      </c>
+      <c r="H217" t="n">
+        <v>19417.18889999999</v>
+      </c>
+      <c r="I217" t="n">
+        <v>18949.0135</v>
+      </c>
+      <c r="J217" t="n">
+        <v>4279.518700000001</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>105508.5983</v>
+        <v>165706.7083</v>
       </c>
       <c r="C218" t="n">
-        <v>10.1</v>
+        <v>8.6</v>
       </c>
       <c r="D218" t="n">
-        <v>772292.4184</v>
+        <v>834201.1785</v>
       </c>
       <c r="E218" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F218" t="n">
-        <v>32425.7697</v>
+        <v>46748.2825</v>
       </c>
       <c r="G218" t="n">
-        <v>-12.7</v>
+        <v>-8.6</v>
+      </c>
+      <c r="H218" t="n">
+        <v>20573.641</v>
+      </c>
+      <c r="I218" t="n">
+        <v>21044.68870000006</v>
+      </c>
+      <c r="J218" t="n">
+        <v>5138.008900000001</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>125715.8784</v>
+        <v>185634.4244</v>
       </c>
       <c r="C219" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D219" t="n">
-        <v>794207.4763</v>
+        <v>854881.7971</v>
       </c>
       <c r="E219" t="n">
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>37330.7549</v>
+        <v>54211.1425</v>
       </c>
       <c r="G219" t="n">
-        <v>-11.3</v>
+        <v>-5.5</v>
+      </c>
+      <c r="H219" t="n">
+        <v>19927.71609999999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>20680.61859999993</v>
+      </c>
+      <c r="J219" t="n">
+        <v>7462.860000000001</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>145133.0673</v>
+        <v>205194.4325</v>
       </c>
       <c r="C220" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="D220" t="n">
-        <v>813156.4898</v>
+        <v>874813.9267</v>
       </c>
       <c r="E220" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>41610.2736</v>
+        <v>63846.4856</v>
       </c>
       <c r="G220" t="n">
-        <v>-10</v>
+        <v>-4.5</v>
+      </c>
+      <c r="H220" t="n">
+        <v>19560.00810000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>19932.12959999999</v>
+      </c>
+      <c r="J220" t="n">
+        <v>9635.343099999998</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>165706.7083</v>
+        <v>227153.5829</v>
       </c>
       <c r="C221" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="D221" t="n">
-        <v>834201.1785</v>
+        <v>893820.8892</v>
       </c>
       <c r="E221" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="F221" t="n">
-        <v>46748.2825</v>
+        <v>95941.5331</v>
       </c>
       <c r="G221" t="n">
-        <v>-8.6</v>
+        <v>2.6</v>
+      </c>
+      <c r="H221" t="n">
+        <v>21959.15040000001</v>
+      </c>
+      <c r="I221" t="n">
+        <v>19006.96250000002</v>
+      </c>
+      <c r="J221" t="n">
+        <v>32095.0475</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>180718.4238</v>
+        <v>10369.6249</v>
       </c>
       <c r="C222" t="n">
-        <v>-2.6</v>
+        <v>-44.9</v>
       </c>
       <c r="D222" t="n">
-        <v>880117.4607000001</v>
+        <v>694241.2034</v>
       </c>
       <c r="E222" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="F222" t="n">
-        <v>49239.7256</v>
+        <v>9635.536400000001</v>
       </c>
       <c r="G222" t="n">
-        <v>-9.199999999999999</v>
+        <v>-22.9</v>
+      </c>
+      <c r="H222" t="n">
+        <v>10369.6249</v>
+      </c>
+      <c r="I222" t="n">
+        <v>694241.2034</v>
+      </c>
+      <c r="J222" t="n">
+        <v>9635.536400000001</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>201084.6683</v>
+        <v>28202.9939</v>
       </c>
       <c r="C223" t="n">
-        <v>-2</v>
+        <v>-27.2</v>
       </c>
       <c r="D223" t="n">
-        <v>902424.7965000001</v>
+        <v>717886.4104000001</v>
       </c>
       <c r="E223" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="F223" t="n">
-        <v>59172.6412</v>
+        <v>15557.2103</v>
       </c>
       <c r="G223" t="n">
-        <v>-7.3</v>
+        <v>-15.8</v>
+      </c>
+      <c r="H223" t="n">
+        <v>17833.369</v>
+      </c>
+      <c r="I223" t="n">
+        <v>23645.20700000005</v>
+      </c>
+      <c r="J223" t="n">
+        <v>5921.6739</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>224433.1331</v>
+        <v>47767.624</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.2</v>
+        <v>-18.4</v>
       </c>
       <c r="D224" t="n">
-        <v>926759.1875999999</v>
+        <v>740567.7301</v>
       </c>
       <c r="E224" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="F224" t="n">
-        <v>91218.2251</v>
+        <v>19286.0497</v>
       </c>
       <c r="G224" t="n">
-        <v>-4.9</v>
+        <v>-14.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>19564.6301</v>
+      </c>
+      <c r="I224" t="n">
+        <v>22681.31969999999</v>
+      </c>
+      <c r="J224" t="n">
+        <v>3728.839399999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>10369.6249</v>
+        <v>69532.80929999999</v>
       </c>
       <c r="C225" t="n">
-        <v>-44.9</v>
+        <v>-12.8</v>
       </c>
       <c r="D225" t="n">
-        <v>694241.2034</v>
+        <v>762627.7455</v>
       </c>
       <c r="E225" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="F225" t="n">
-        <v>9635.536400000001</v>
+        <v>23687.1203</v>
       </c>
       <c r="G225" t="n">
-        <v>-22.9</v>
+        <v>-11.3</v>
+      </c>
+      <c r="H225" t="n">
+        <v>21765.18529999999</v>
+      </c>
+      <c r="I225" t="n">
+        <v>22060.01539999992</v>
+      </c>
+      <c r="J225" t="n">
+        <v>4401.070599999999</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>28202.9939</v>
+        <v>97536.429</v>
       </c>
       <c r="C226" t="n">
-        <v>-27.2</v>
+        <v>-7.6</v>
       </c>
       <c r="D226" t="n">
-        <v>717886.4104000001</v>
+        <v>792721.1811</v>
       </c>
       <c r="E226" t="n">
         <v>2.6</v>
       </c>
       <c r="F226" t="n">
-        <v>15557.2103</v>
+        <v>29029.8056</v>
       </c>
       <c r="G226" t="n">
-        <v>-15.8</v>
+        <v>-10.5</v>
+      </c>
+      <c r="H226" t="n">
+        <v>28003.61970000001</v>
+      </c>
+      <c r="I226" t="n">
+        <v>30093.43560000008</v>
+      </c>
+      <c r="J226" t="n">
+        <v>5342.685300000001</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>47767.624</v>
+        <v>120031.5376</v>
       </c>
       <c r="C227" t="n">
-        <v>-18.4</v>
+        <v>-4.5</v>
       </c>
       <c r="D227" t="n">
-        <v>740567.7301</v>
+        <v>818279.7123</v>
       </c>
       <c r="E227" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F227" t="n">
-        <v>19286.0497</v>
+        <v>33248.413</v>
       </c>
       <c r="G227" t="n">
-        <v>-14.5</v>
+        <v>-10.9</v>
+      </c>
+      <c r="H227" t="n">
+        <v>22495.10859999999</v>
+      </c>
+      <c r="I227" t="n">
+        <v>25558.53119999997</v>
+      </c>
+      <c r="J227" t="n">
+        <v>4218.607400000001</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>69532.80929999999</v>
+        <v>139916.9627</v>
       </c>
       <c r="C228" t="n">
-        <v>-12.8</v>
+        <v>-3.6</v>
       </c>
       <c r="D228" t="n">
-        <v>762627.7455</v>
+        <v>839733.5980999999</v>
       </c>
       <c r="E228" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="F228" t="n">
-        <v>23687.1203</v>
+        <v>37107.484</v>
       </c>
       <c r="G228" t="n">
-        <v>-11.3</v>
+        <v>-10.8</v>
+      </c>
+      <c r="H228" t="n">
+        <v>19885.42510000001</v>
+      </c>
+      <c r="I228" t="n">
+        <v>21453.88579999993</v>
+      </c>
+      <c r="J228" t="n">
+        <v>3859.070999999996</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>97536.429</v>
+        <v>160090.002</v>
       </c>
       <c r="C229" t="n">
-        <v>-7.6</v>
+        <v>-3.4</v>
       </c>
       <c r="D229" t="n">
-        <v>792721.1811</v>
+        <v>859820.2679</v>
       </c>
       <c r="E229" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="F229" t="n">
-        <v>29029.8056</v>
+        <v>41338.2046</v>
       </c>
       <c r="G229" t="n">
-        <v>-10.5</v>
+        <v>-11.6</v>
+      </c>
+      <c r="H229" t="n">
+        <v>20173.0393</v>
+      </c>
+      <c r="I229" t="n">
+        <v>20086.66980000003</v>
+      </c>
+      <c r="J229" t="n">
+        <v>4230.720600000001</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>120031.5376</v>
+        <v>180718.4238</v>
       </c>
       <c r="C230" t="n">
-        <v>-4.5</v>
+        <v>-2.6</v>
       </c>
       <c r="D230" t="n">
-        <v>818279.7123</v>
+        <v>880117.4607000001</v>
       </c>
       <c r="E230" t="n">
         <v>3</v>
       </c>
       <c r="F230" t="n">
-        <v>33248.413</v>
+        <v>49239.7256</v>
       </c>
       <c r="G230" t="n">
-        <v>-10.9</v>
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>20628.42179999998</v>
+      </c>
+      <c r="I230" t="n">
+        <v>20297.19280000008</v>
+      </c>
+      <c r="J230" t="n">
+        <v>7901.521000000001</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>139916.9627</v>
+        <v>201084.6683</v>
       </c>
       <c r="C231" t="n">
-        <v>-3.6</v>
+        <v>-2</v>
       </c>
       <c r="D231" t="n">
-        <v>839733.5980999999</v>
+        <v>902424.7965000001</v>
       </c>
       <c r="E231" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F231" t="n">
-        <v>37107.484</v>
+        <v>59172.6412</v>
       </c>
       <c r="G231" t="n">
-        <v>-10.8</v>
+        <v>-7.3</v>
+      </c>
+      <c r="H231" t="n">
+        <v>20366.2445</v>
+      </c>
+      <c r="I231" t="n">
+        <v>22307.3358</v>
+      </c>
+      <c r="J231" t="n">
+        <v>9932.9156</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>160090.002</v>
+        <v>224433.1331</v>
       </c>
       <c r="C232" t="n">
-        <v>-3.4</v>
+        <v>-1.2</v>
       </c>
       <c r="D232" t="n">
-        <v>859820.2679</v>
+        <v>926759.1875999999</v>
       </c>
       <c r="E232" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="F232" t="n">
-        <v>41338.2046</v>
+        <v>91218.2251</v>
       </c>
       <c r="G232" t="n">
-        <v>-11.6</v>
+        <v>-4.9</v>
+      </c>
+      <c r="H232" t="n">
+        <v>23348.46480000002</v>
+      </c>
+      <c r="I232" t="n">
+        <v>24334.39109999989</v>
+      </c>
+      <c r="J232" t="n">
+        <v>32045.5839</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>166736.2535</v>
+        <v>17036.9434</v>
       </c>
       <c r="C233" t="n">
-        <v>-7.7</v>
+        <v>64.3</v>
       </c>
       <c r="D233" t="n">
-        <v>942858.6338</v>
+        <v>770628.9252000001</v>
       </c>
       <c r="E233" t="n">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="F233" t="n">
-        <v>57290.2782</v>
+        <v>13524.9667</v>
       </c>
       <c r="G233" t="n">
-        <v>16.3</v>
+        <v>40.4</v>
+      </c>
+      <c r="H233" t="n">
+        <v>17036.9434</v>
+      </c>
+      <c r="I233" t="n">
+        <v>770628.9252000001</v>
+      </c>
+      <c r="J233" t="n">
+        <v>13524.9667</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>182819.5344</v>
+        <v>36162.5414</v>
       </c>
       <c r="C234" t="n">
-        <v>-9.1</v>
+        <v>28.2</v>
       </c>
       <c r="D234" t="n">
-        <v>959653.8198000001</v>
+        <v>798393.8515</v>
       </c>
       <c r="E234" t="n">
-        <v>6.3</v>
+        <v>11.2</v>
       </c>
       <c r="F234" t="n">
-        <v>68753.8222</v>
+        <v>19121.9557</v>
       </c>
       <c r="G234" t="n">
-        <v>16.2</v>
+        <v>22.9</v>
+      </c>
+      <c r="H234" t="n">
+        <v>19125.598</v>
+      </c>
+      <c r="I234" t="n">
+        <v>27764.92629999993</v>
+      </c>
+      <c r="J234" t="n">
+        <v>5596.988999999998</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>198895.0471</v>
+        <v>53904.5473</v>
       </c>
       <c r="C235" t="n">
-        <v>-11.4</v>
+        <v>12.8</v>
       </c>
       <c r="D235" t="n">
-        <v>975386.5101</v>
+        <v>818512.9212</v>
       </c>
       <c r="E235" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="F235" t="n">
-        <v>101411.9393</v>
+        <v>22735.5244</v>
       </c>
       <c r="G235" t="n">
-        <v>11.2</v>
+        <v>17.9</v>
+      </c>
+      <c r="H235" t="n">
+        <v>17742.0059</v>
+      </c>
+      <c r="I235" t="n">
+        <v>20119.06969999999</v>
+      </c>
+      <c r="J235" t="n">
+        <v>3613.5687</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>17036.9434</v>
+        <v>74348.7118</v>
       </c>
       <c r="C236" t="n">
-        <v>64.3</v>
+        <v>6.9</v>
       </c>
       <c r="D236" t="n">
-        <v>770628.9252000001</v>
+        <v>839961.6273000001</v>
       </c>
       <c r="E236" t="n">
-        <v>11</v>
+        <v>10.1</v>
       </c>
       <c r="F236" t="n">
-        <v>13524.9667</v>
+        <v>27582.6859</v>
       </c>
       <c r="G236" t="n">
-        <v>40.4</v>
+        <v>16.4</v>
+      </c>
+      <c r="H236" t="n">
+        <v>20444.16450000001</v>
+      </c>
+      <c r="I236" t="n">
+        <v>21448.70610000007</v>
+      </c>
+      <c r="J236" t="n">
+        <v>4847.161500000002</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>36162.5414</v>
+        <v>101288.3407</v>
       </c>
       <c r="C237" t="n">
-        <v>28.2</v>
+        <v>3.8</v>
       </c>
       <c r="D237" t="n">
-        <v>798393.8515</v>
+        <v>873250.6121</v>
       </c>
       <c r="E237" t="n">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="F237" t="n">
-        <v>19121.9557</v>
+        <v>36481.0404</v>
       </c>
       <c r="G237" t="n">
-        <v>22.9</v>
+        <v>25.7</v>
+      </c>
+      <c r="H237" t="n">
+        <v>26939.6289</v>
+      </c>
+      <c r="I237" t="n">
+        <v>33288.98479999998</v>
+      </c>
+      <c r="J237" t="n">
+        <v>8898.354499999998</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>53904.5473</v>
+        <v>118948.2719</v>
       </c>
       <c r="C238" t="n">
-        <v>12.8</v>
+        <v>-0.9</v>
       </c>
       <c r="D238" t="n">
-        <v>818512.9212</v>
+        <v>891880.286</v>
       </c>
       <c r="E238" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>22735.5244</v>
+        <v>41782.253</v>
       </c>
       <c r="G238" t="n">
-        <v>17.9</v>
+        <v>25.7</v>
+      </c>
+      <c r="H238" t="n">
+        <v>17659.93120000001</v>
+      </c>
+      <c r="I238" t="n">
+        <v>18629.67389999994</v>
+      </c>
+      <c r="J238" t="n">
+        <v>5301.212599999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>74348.7118</v>
+        <v>135502.085</v>
       </c>
       <c r="C239" t="n">
-        <v>6.9</v>
+        <v>-3.2</v>
       </c>
       <c r="D239" t="n">
-        <v>839961.6273000001</v>
+        <v>909992.024</v>
       </c>
       <c r="E239" t="n">
-        <v>10.1</v>
+        <v>8.4</v>
       </c>
       <c r="F239" t="n">
-        <v>27582.6859</v>
+        <v>46738.9473</v>
       </c>
       <c r="G239" t="n">
-        <v>16.4</v>
+        <v>26</v>
+      </c>
+      <c r="H239" t="n">
+        <v>16553.81309999998</v>
+      </c>
+      <c r="I239" t="n">
+        <v>18111.73800000001</v>
+      </c>
+      <c r="J239" t="n">
+        <v>4956.694300000003</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>101288.3407</v>
+        <v>152943.5867</v>
       </c>
       <c r="C240" t="n">
-        <v>3.8</v>
+        <v>-4.5</v>
       </c>
       <c r="D240" t="n">
-        <v>873250.6121</v>
+        <v>928064.7215</v>
       </c>
       <c r="E240" t="n">
-        <v>10.2</v>
+        <v>7.9</v>
       </c>
       <c r="F240" t="n">
-        <v>36481.0404</v>
+        <v>51012.6536</v>
       </c>
       <c r="G240" t="n">
-        <v>25.7</v>
+        <v>23.4</v>
+      </c>
+      <c r="H240" t="n">
+        <v>17441.50170000002</v>
+      </c>
+      <c r="I240" t="n">
+        <v>18072.69750000001</v>
+      </c>
+      <c r="J240" t="n">
+        <v>4273.706299999998</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>118948.2719</v>
+        <v>166736.2535</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.9</v>
+        <v>-7.7</v>
       </c>
       <c r="D241" t="n">
-        <v>891880.286</v>
+        <v>942858.6338</v>
       </c>
       <c r="E241" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="F241" t="n">
-        <v>41782.253</v>
+        <v>57290.2782</v>
       </c>
       <c r="G241" t="n">
-        <v>25.7</v>
+        <v>16.3</v>
+      </c>
+      <c r="H241" t="n">
+        <v>13792.66679999998</v>
+      </c>
+      <c r="I241" t="n">
+        <v>14793.91229999997</v>
+      </c>
+      <c r="J241" t="n">
+        <v>6277.624600000003</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>135502.085</v>
+        <v>182819.5344</v>
       </c>
       <c r="C242" t="n">
-        <v>-3.2</v>
+        <v>-9.1</v>
       </c>
       <c r="D242" t="n">
-        <v>909992.024</v>
+        <v>959653.8198000001</v>
       </c>
       <c r="E242" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="F242" t="n">
-        <v>46738.9473</v>
+        <v>68753.8222</v>
       </c>
       <c r="G242" t="n">
-        <v>26</v>
+        <v>16.2</v>
+      </c>
+      <c r="H242" t="n">
+        <v>16083.28090000001</v>
+      </c>
+      <c r="I242" t="n">
+        <v>16795.1860000001</v>
+      </c>
+      <c r="J242" t="n">
+        <v>11463.54399999999</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>152943.5867</v>
+        <v>198895.0471</v>
       </c>
       <c r="C243" t="n">
-        <v>-4.5</v>
+        <v>-11.4</v>
       </c>
       <c r="D243" t="n">
-        <v>928064.7215</v>
+        <v>975386.5101</v>
       </c>
       <c r="E243" t="n">
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="F243" t="n">
-        <v>51012.6536</v>
+        <v>101411.9393</v>
       </c>
       <c r="G243" t="n">
-        <v>23.4</v>
+        <v>11.2</v>
+      </c>
+      <c r="H243" t="n">
+        <v>16075.51269999999</v>
+      </c>
+      <c r="I243" t="n">
+        <v>15732.6902999999</v>
+      </c>
+      <c r="J243" t="n">
+        <v>32658.1171</v>
       </c>
     </row>
   </sheetData>
